--- a/CleansedJarden.xlsx
+++ b/CleansedJarden.xlsx
@@ -5117,7 +5117,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>13060</v>
+        <v>13138</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -5159,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>32.231729128772</v>
+        <v>32.2317291287721</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>12995</v>
+        <v>13073</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>4766</v>
+        <v>4442</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -5271,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>29.5983689640865</v>
+        <v>29.5983689640866</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>5056</v>
+        <v>5272</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>11633</v>
+        <v>11614</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -5383,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>26.4580017690463</v>
+        <v>26.4580017690464</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>11477</v>
+        <v>11458</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>4592</v>
+        <v>4268</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>11519</v>
+        <v>11500</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -5551,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>21.9090321556526</v>
+        <v>21.9090321556525</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>12760</v>
+        <v>12838</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -5607,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>21.3347735744544</v>
+        <v>21.3347735744545</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
-        <v>4321</v>
+        <v>3997</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
-        <v>4921</v>
+        <v>4597</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
-        <v>11417</v>
+        <v>11398</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
-        <v>5063</v>
+        <v>5279</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
-        <v>5287</v>
+        <v>5395</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>17.3052582753167</v>
+        <v>17.3052582753166</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
-        <v>5169</v>
+        <v>5331</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1">
-        <v>5055</v>
+        <v>5271</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1">
-        <v>5049</v>
+        <v>5265</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>15.7448596797871</v>
+        <v>15.744859679787</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1">
-        <v>4917</v>
+        <v>4593</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1">
-        <v>13017</v>
+        <v>13095</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1">
-        <v>11490</v>
+        <v>11471</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1">
-        <v>4494</v>
+        <v>4170</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1">
-        <v>4662</v>
+        <v>4338</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1">
-        <v>12823</v>
+        <v>12901</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1">
-        <v>11439</v>
+        <v>11420</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1">
-        <v>4533</v>
+        <v>4857</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
@@ -6503,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>12.1081975503735</v>
+        <v>12.1081975503736</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1">
-        <v>4678</v>
+        <v>5002</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <v>11.704183096398</v>
+        <v>11.7041830963979</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1">
-        <v>4219</v>
+        <v>3895</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
@@ -6615,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>11.5485094784494</v>
+        <v>11.5485094784495</v>
       </c>
       <c r="P28" t="b">
         <v>0</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1">
-        <v>12874</v>
+        <v>12952</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1">
-        <v>4333</v>
+        <v>4009</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
@@ -6727,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>11.3378564715458</v>
+        <v>11.3378564715459</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1">
-        <v>11459</v>
+        <v>11440</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1">
-        <v>4647</v>
+        <v>4323</v>
       </c>
       <c r="B32" t="s">
         <v>47</v>
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>11.1970437660413</v>
+        <v>11.1970437660414</v>
       </c>
       <c r="P32" t="b">
         <v>0</v>
@@ -6848,12 +6848,12 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0.989293265924792</v>
+        <v>0.989293265924793</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="1">
-        <v>12693</v>
+        <v>12771</v>
       </c>
       <c r="B33" t="s">
         <v>48</v>
@@ -6895,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>11.0540862058086</v>
+        <v>11.0540862058085</v>
       </c>
       <c r="P33" t="b">
         <v>0</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="1">
-        <v>4546</v>
+        <v>4222</v>
       </c>
       <c r="B34" t="s">
         <v>49</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="1">
-        <v>11522</v>
+        <v>11503</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="1">
-        <v>12842</v>
+        <v>12920</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
@@ -7063,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <v>10.3465969247671</v>
+        <v>10.3465969247672</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="1">
-        <v>12880</v>
+        <v>12958</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="1">
-        <v>12799</v>
+        <v>12877</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="1">
-        <v>12780</v>
+        <v>12858</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="1">
-        <v>4761</v>
+        <v>4437</v>
       </c>
       <c r="B40" t="s">
         <v>55</v>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="1">
-        <v>4280</v>
+        <v>3956</v>
       </c>
       <c r="B41" t="s">
         <v>56</v>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="1">
-        <v>5066</v>
+        <v>5282</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>9.87237851869208</v>
+        <v>9.8723785186921</v>
       </c>
       <c r="P42" t="b">
         <v>0</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="1">
-        <v>12913</v>
+        <v>12991</v>
       </c>
       <c r="B43" t="s">
         <v>58</v>
@@ -7455,7 +7455,7 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <v>9.84231414993594</v>
+        <v>9.84231414993595</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="1">
-        <v>11366</v>
+        <v>11347</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
@@ -7511,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <v>9.75462826780134</v>
+        <v>9.75462826780132</v>
       </c>
       <c r="P44" t="b">
         <v>0</v>
@@ -7520,12 +7520,12 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <v>0.97922872072361</v>
+        <v>0.979228720723609</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="1">
-        <v>12839</v>
+        <v>12917</v>
       </c>
       <c r="B45" t="s">
         <v>60</v>
@@ -7567,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <v>9.64617552036524</v>
+        <v>9.64617552036523</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="1">
-        <v>13098</v>
+        <v>13176</v>
       </c>
       <c r="B46" t="s">
         <v>61</v>
@@ -7623,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="O46">
-        <v>9.29485804318145</v>
+        <v>9.29485804318147</v>
       </c>
       <c r="P46" t="b">
         <v>0</v>
@@ -7632,12 +7632,12 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>0.974383088146819</v>
+        <v>0.97438308814682</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="1">
-        <v>12921</v>
+        <v>12999</v>
       </c>
       <c r="B47" t="s">
         <v>62</v>
@@ -7679,7 +7679,7 @@
         <v>1</v>
       </c>
       <c r="O47">
-        <v>9.29234678425046</v>
+        <v>9.29234678425049</v>
       </c>
       <c r="P47" t="b">
         <v>0</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="1">
-        <v>12927</v>
+        <v>13005</v>
       </c>
       <c r="B48" t="s">
         <v>63</v>
@@ -7735,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="O48">
-        <v>9.25903480864844</v>
+        <v>9.25903480864846</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
@@ -7744,12 +7744,12 @@
         <v>1</v>
       </c>
       <c r="R48">
-        <v>0.973962052805056</v>
+        <v>0.973962052805057</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="1">
-        <v>11384</v>
+        <v>11365</v>
       </c>
       <c r="B49" t="s">
         <v>64</v>
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <v>8.96550504134515</v>
+        <v>8.96550504134513</v>
       </c>
       <c r="P49" t="b">
         <v>0</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="1">
-        <v>12807</v>
+        <v>12885</v>
       </c>
       <c r="B50" t="s">
         <v>65</v>
@@ -7847,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <v>8.86089664908067</v>
+        <v>8.86089664908066</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="1">
-        <v>11590</v>
+        <v>11571</v>
       </c>
       <c r="B51" t="s">
         <v>66</v>
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <v>8.76715731577655</v>
+        <v>8.76715731577657</v>
       </c>
       <c r="P51" t="b">
         <v>0</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="1">
-        <v>11605</v>
+        <v>11586</v>
       </c>
       <c r="B52" t="s">
         <v>67</v>
@@ -7959,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="O52">
-        <v>8.74442742698849</v>
+        <v>8.74442742698848</v>
       </c>
       <c r="P52" t="b">
         <v>0</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="1">
-        <v>11589</v>
+        <v>11570</v>
       </c>
       <c r="B53" t="s">
         <v>68</v>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="1">
-        <v>11563</v>
+        <v>11544</v>
       </c>
       <c r="B54" t="s">
         <v>69</v>
@@ -8071,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <v>8.65744880850197</v>
+        <v>8.65744880850195</v>
       </c>
       <c r="P54" t="b">
         <v>0</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="1">
-        <v>12748</v>
+        <v>12826</v>
       </c>
       <c r="B55" t="s">
         <v>70</v>
@@ -8127,7 +8127,7 @@
         <v>1</v>
       </c>
       <c r="O55">
-        <v>8.61410447701151</v>
+        <v>8.6141044770115</v>
       </c>
       <c r="P55" t="b">
         <v>0</v>
@@ -8136,12 +8136,12 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>0.965113085924767</v>
+        <v>0.965113085924766</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="1">
-        <v>12912</v>
+        <v>12990</v>
       </c>
       <c r="B56" t="s">
         <v>71</v>
@@ -8183,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="O56">
-        <v>8.59702231279017</v>
+        <v>8.59702231279015</v>
       </c>
       <c r="P56" t="b">
         <v>0</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="1">
-        <v>4934</v>
+        <v>4610</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
@@ -8239,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="O57">
-        <v>8.56000219938043</v>
+        <v>8.56000219938041</v>
       </c>
       <c r="P57" t="b">
         <v>0</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="1">
-        <v>12987</v>
+        <v>13065</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -8295,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="O58">
-        <v>8.54720517069345</v>
+        <v>8.54720517069347</v>
       </c>
       <c r="P58" t="b">
         <v>0</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="1">
-        <v>4658</v>
+        <v>4334</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -8351,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="O59">
-        <v>8.48485983153165</v>
+        <v>8.48485983153167</v>
       </c>
       <c r="P59" t="b">
         <v>0</v>
@@ -8360,12 +8360,12 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>0.963014856739812</v>
+        <v>0.963014856739813</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="1">
-        <v>12725</v>
+        <v>12803</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
@@ -8407,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="O60">
-        <v>8.47144712545132</v>
+        <v>8.4714471254513</v>
       </c>
       <c r="P60" t="b">
         <v>0</v>
@@ -8416,12 +8416,12 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>0.962790173806532</v>
+        <v>0.962790173806531</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="1">
-        <v>4849</v>
+        <v>5173</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="1">
-        <v>4555</v>
+        <v>4231</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -8519,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <v>8.32463628571095</v>
+        <v>8.32463628571093</v>
       </c>
       <c r="P62" t="b">
         <v>0</v>
@@ -8528,12 +8528,12 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <v>0.960242061795551</v>
+        <v>0.96024206179555</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="1">
-        <v>11365</v>
+        <v>11346</v>
       </c>
       <c r="B63" t="s">
         <v>78</v>
@@ -8575,7 +8575,7 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <v>8.11462296397437</v>
+        <v>8.11462296397439</v>
       </c>
       <c r="P63" t="b">
         <v>0</v>
@@ -8589,7 +8589,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="1">
-        <v>4485</v>
+        <v>4161</v>
       </c>
       <c r="B64" t="s">
         <v>79</v>
@@ -8631,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="O64">
-        <v>7.98176491169192</v>
+        <v>7.98176491169194</v>
       </c>
       <c r="P64" t="b">
         <v>0</v>
@@ -8640,12 +8640,12 @@
         <v>0</v>
       </c>
       <c r="R64">
-        <v>0.953609922882814</v>
+        <v>0.953609922882815</v>
       </c>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="1">
-        <v>11710</v>
+        <v>11691</v>
       </c>
       <c r="B65" t="s">
         <v>80</v>
@@ -8687,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <v>7.89490528351081</v>
+        <v>7.89490528351082</v>
       </c>
       <c r="P65" t="b">
         <v>0</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="1">
-        <v>13036</v>
+        <v>13114</v>
       </c>
       <c r="B66" t="s">
         <v>81</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="1">
-        <v>11647</v>
+        <v>11628</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
@@ -8808,12 +8808,12 @@
         <v>1</v>
       </c>
       <c r="R67">
-        <v>0.946161241800464</v>
+        <v>0.946161241800463</v>
       </c>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="1">
-        <v>13010</v>
+        <v>13088</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <v>7.40793393177443</v>
+        <v>7.40793393177444</v>
       </c>
       <c r="P68" t="b">
         <v>0</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="1">
-        <v>4801</v>
+        <v>5125</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
@@ -8911,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>7.35349552789634</v>
+        <v>7.35349552789633</v>
       </c>
       <c r="P69" t="b">
         <v>0</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="1">
-        <v>4639</v>
+        <v>4963</v>
       </c>
       <c r="B70" t="s">
         <v>85</v>
@@ -8967,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="O70">
-        <v>7.3479218538395</v>
+        <v>7.34792185383952</v>
       </c>
       <c r="P70" t="b">
         <v>0</v>
@@ -8976,12 +8976,12 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>0.938402522285667</v>
+        <v>0.938402522285668</v>
       </c>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="1">
-        <v>5234</v>
+        <v>5369</v>
       </c>
       <c r="B71" t="s">
         <v>86</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="1">
-        <v>12991</v>
+        <v>13069</v>
       </c>
       <c r="B72" t="s">
         <v>87</v>
@@ -9079,7 +9079,7 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>6.85730994529711</v>
+        <v>6.8573099452971</v>
       </c>
       <c r="P72" t="b">
         <v>0</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="1">
-        <v>12968</v>
+        <v>13046</v>
       </c>
       <c r="B73" t="s">
         <v>88</v>
@@ -9135,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="O73">
-        <v>6.72177777343927</v>
+        <v>6.72177777343928</v>
       </c>
       <c r="P73" t="b">
         <v>0</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="1">
-        <v>4557</v>
+        <v>4233</v>
       </c>
       <c r="B74" t="s">
         <v>89</v>
@@ -9191,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="O74">
-        <v>6.66168717099226</v>
+        <v>6.66168717099225</v>
       </c>
       <c r="P74" t="b">
         <v>0</v>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="1">
-        <v>12805</v>
+        <v>12883</v>
       </c>
       <c r="B75" t="s">
         <v>90</v>
@@ -9256,12 +9256,12 @@
         <v>1</v>
       </c>
       <c r="R75">
-        <v>0.916188125118737</v>
+        <v>0.916188125118738</v>
       </c>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="1">
-        <v>4550</v>
+        <v>4226</v>
       </c>
       <c r="B76" t="s">
         <v>91</v>
@@ -9303,7 +9303,7 @@
         <v>1</v>
       </c>
       <c r="O76">
-        <v>6.51663702262196</v>
+        <v>6.51663702262194</v>
       </c>
       <c r="P76" t="b">
         <v>0</v>
@@ -9312,12 +9312,12 @@
         <v>1</v>
       </c>
       <c r="R76">
-        <v>0.91099131495938</v>
+        <v>0.910991314959379</v>
       </c>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="1">
-        <v>11552</v>
+        <v>11533</v>
       </c>
       <c r="B77" t="s">
         <v>92</v>
@@ -9359,7 +9359,7 @@
         <v>1</v>
       </c>
       <c r="O77">
-        <v>6.50589087457311</v>
+        <v>6.50589087457312</v>
       </c>
       <c r="P77" t="b">
         <v>0</v>
@@ -9368,12 +9368,12 @@
         <v>1</v>
       </c>
       <c r="R77">
-        <v>0.910569528256852</v>
+        <v>0.910569528256853</v>
       </c>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="1">
-        <v>12695</v>
+        <v>12773</v>
       </c>
       <c r="B78" t="s">
         <v>93</v>
@@ -9415,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="O78">
-        <v>6.47405194405466</v>
+        <v>6.47405194405465</v>
       </c>
       <c r="P78" t="b">
         <v>0</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="1">
-        <v>12769</v>
+        <v>12847</v>
       </c>
       <c r="B79" t="s">
         <v>94</v>
@@ -9471,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="O79">
-        <v>6.45415370274024</v>
+        <v>6.45415370274025</v>
       </c>
       <c r="P79" t="b">
         <v>0</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="1">
-        <v>11688</v>
+        <v>11669</v>
       </c>
       <c r="B80" t="s">
         <v>95</v>
@@ -9536,12 +9536,12 @@
         <v>0</v>
       </c>
       <c r="R80">
-        <v>0.908199591905325</v>
+        <v>0.908199591905324</v>
       </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="1">
-        <v>4835</v>
+        <v>5159</v>
       </c>
       <c r="B81" t="s">
         <v>96</v>
@@ -9583,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="O81">
-        <v>6.44473701568227</v>
+        <v>6.44473701568228</v>
       </c>
       <c r="P81" t="b">
         <v>0</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="1">
-        <v>4270</v>
+        <v>3946</v>
       </c>
       <c r="B82" t="s">
         <v>97</v>
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="O82">
-        <v>6.37924425697886</v>
+        <v>6.37924425697887</v>
       </c>
       <c r="P82" t="b">
         <v>0</v>
@@ -9648,12 +9648,12 @@
         <v>1</v>
       </c>
       <c r="R82">
-        <v>0.905451582654235</v>
+        <v>0.905451582654236</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="1">
-        <v>4433</v>
+        <v>4109</v>
       </c>
       <c r="B83" t="s">
         <v>98</v>
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="O83">
-        <v>6.35494492225081</v>
+        <v>6.35494492225082</v>
       </c>
       <c r="P83" t="b">
         <v>0</v>
@@ -9704,12 +9704,12 @@
         <v>0</v>
       </c>
       <c r="R83">
-        <v>0.904437951749154</v>
+        <v>0.904437951749155</v>
       </c>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="1">
-        <v>5103</v>
+        <v>5292</v>
       </c>
       <c r="B84" t="s">
         <v>99</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="1">
-        <v>4331</v>
+        <v>4007</v>
       </c>
       <c r="B85" t="s">
         <v>100</v>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="1">
-        <v>13040</v>
+        <v>13118</v>
       </c>
       <c r="B86" t="s">
         <v>101</v>
@@ -9863,7 +9863,7 @@
         <v>1</v>
       </c>
       <c r="O86">
-        <v>6.23178455833213</v>
+        <v>6.23178455833214</v>
       </c>
       <c r="P86" t="b">
         <v>0</v>
@@ -9872,12 +9872,12 @@
         <v>0</v>
       </c>
       <c r="R86">
-        <v>0.899137891946658</v>
+        <v>0.899137891946659</v>
       </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="1">
-        <v>11425</v>
+        <v>11406</v>
       </c>
       <c r="B87" t="s">
         <v>102</v>
@@ -9928,12 +9928,12 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <v>0.897506357599544</v>
+        <v>0.897506357599543</v>
       </c>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="1">
-        <v>5015</v>
+        <v>5258</v>
       </c>
       <c r="B88" t="s">
         <v>103</v>
@@ -9989,7 +9989,7 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="1">
-        <v>5073</v>
+        <v>5289</v>
       </c>
       <c r="B89" t="s">
         <v>104</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="1">
-        <v>5059</v>
+        <v>5275</v>
       </c>
       <c r="B90" t="s">
         <v>105</v>
@@ -10087,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="O90">
-        <v>6.13300126296538</v>
+        <v>6.1330012629654</v>
       </c>
       <c r="P90" t="b">
         <v>0</v>
@@ -10101,7 +10101,7 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="1">
-        <v>4679</v>
+        <v>5003</v>
       </c>
       <c r="B91" t="s">
         <v>106</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="1">
-        <v>4821</v>
+        <v>4497</v>
       </c>
       <c r="B92" t="s">
         <v>107</v>
@@ -10213,7 +10213,7 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="1">
-        <v>12978</v>
+        <v>13056</v>
       </c>
       <c r="B93" t="s">
         <v>108</v>
@@ -10255,7 +10255,7 @@
         <v>1</v>
       </c>
       <c r="O93">
-        <v>6.01964193452478</v>
+        <v>6.01964193452477</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
@@ -10269,7 +10269,7 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="1">
-        <v>5173</v>
+        <v>5335</v>
       </c>
       <c r="B94" t="s">
         <v>109</v>
@@ -10311,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="O94">
-        <v>5.96064033184061</v>
+        <v>5.96064033184062</v>
       </c>
       <c r="P94" t="b">
         <v>0</v>
@@ -10325,7 +10325,7 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="1">
-        <v>4641</v>
+        <v>4965</v>
       </c>
       <c r="B95" t="s">
         <v>110</v>
@@ -10381,7 +10381,7 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="1">
-        <v>4834</v>
+        <v>5158</v>
       </c>
       <c r="B96" t="s">
         <v>111</v>
@@ -10423,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="O96">
-        <v>5.90635882691719</v>
+        <v>5.90635882691718</v>
       </c>
       <c r="P96" t="b">
         <v>0</v>
@@ -10432,12 +10432,12 @@
         <v>1</v>
       </c>
       <c r="R96">
-        <v>0.883743978919739</v>
+        <v>0.883743978919738</v>
       </c>
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="1">
-        <v>4664</v>
+        <v>4340</v>
       </c>
       <c r="B97" t="s">
         <v>112</v>
@@ -10479,7 +10479,7 @@
         <v>1</v>
       </c>
       <c r="O97">
-        <v>5.84214205454631</v>
+        <v>5.8421420545463</v>
       </c>
       <c r="P97" t="b">
         <v>0</v>
@@ -10488,12 +10488,12 @@
         <v>1</v>
       </c>
       <c r="R97">
-        <v>0.880451907444736</v>
+        <v>0.880451907444735</v>
       </c>
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="1">
-        <v>12830</v>
+        <v>12908</v>
       </c>
       <c r="B98" t="s">
         <v>113</v>
@@ -10535,7 +10535,7 @@
         <v>1</v>
       </c>
       <c r="O98">
-        <v>5.83219651569183</v>
+        <v>5.83219651569182</v>
       </c>
       <c r="P98" t="b">
         <v>0</v>
@@ -10544,12 +10544,12 @@
         <v>1</v>
       </c>
       <c r="R98">
-        <v>0.879934164005489</v>
+        <v>0.879934164005488</v>
       </c>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="1">
-        <v>4438</v>
+        <v>4114</v>
       </c>
       <c r="B99" t="s">
         <v>114</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="1">
-        <v>11593</v>
+        <v>11574</v>
       </c>
       <c r="B100" t="s">
         <v>115</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="O100">
-        <v>5.74975504467544</v>
+        <v>5.74975504467543</v>
       </c>
       <c r="P100" t="b">
         <v>0</v>
@@ -10656,12 +10656,12 @@
         <v>1</v>
       </c>
       <c r="R100">
-        <v>0.875559381464135</v>
+        <v>0.875559381464134</v>
       </c>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="1">
-        <v>4892</v>
+        <v>5189</v>
       </c>
       <c r="B101" t="s">
         <v>116</v>
@@ -10703,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="O101">
-        <v>5.70088353140383</v>
+        <v>5.70088353140382</v>
       </c>
       <c r="P101" t="b">
         <v>0</v>
@@ -10717,7 +10717,7 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="1">
-        <v>4671</v>
+        <v>4995</v>
       </c>
       <c r="B102" t="s">
         <v>117</v>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="O102">
-        <v>5.69667928794726</v>
+        <v>5.69667928794727</v>
       </c>
       <c r="P102" t="b">
         <v>0</v>
@@ -10768,12 +10768,12 @@
         <v>0</v>
       </c>
       <c r="R102">
-        <v>0.872663015350447</v>
+        <v>0.872663015350446</v>
       </c>
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="1">
-        <v>12696</v>
+        <v>12774</v>
       </c>
       <c r="B103" t="s">
         <v>118</v>
@@ -10815,7 +10815,7 @@
         <v>1</v>
       </c>
       <c r="O103">
-        <v>5.66023970779149</v>
+        <v>5.66023970779148</v>
       </c>
       <c r="P103" t="b">
         <v>0</v>
@@ -10829,7 +10829,7 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="1">
-        <v>4916</v>
+        <v>4592</v>
       </c>
       <c r="B104" t="s">
         <v>119</v>
@@ -10885,7 +10885,7 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="1">
-        <v>4583</v>
+        <v>4907</v>
       </c>
       <c r="B105" t="s">
         <v>120</v>
@@ -10927,7 +10927,7 @@
         <v>1</v>
       </c>
       <c r="O105">
-        <v>5.61300891628053</v>
+        <v>5.61300891628052</v>
       </c>
       <c r="P105" t="b">
         <v>0</v>
@@ -10941,7 +10941,7 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="1">
-        <v>5120</v>
+        <v>5309</v>
       </c>
       <c r="B106" t="s">
         <v>121</v>
@@ -10997,7 +10997,7 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="1">
-        <v>11597</v>
+        <v>11578</v>
       </c>
       <c r="B107" t="s">
         <v>122</v>
@@ -11039,7 +11039,7 @@
         <v>1</v>
       </c>
       <c r="O107">
-        <v>5.55411277234979</v>
+        <v>5.55411277234978</v>
       </c>
       <c r="P107" t="b">
         <v>0</v>
@@ -11053,7 +11053,7 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="1">
-        <v>11598</v>
+        <v>11579</v>
       </c>
       <c r="B108" t="s">
         <v>123</v>
@@ -11109,7 +11109,7 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="1">
-        <v>4825</v>
+        <v>4501</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
@@ -11151,7 +11151,7 @@
         <v>1</v>
       </c>
       <c r="O109">
-        <v>5.38885580069789</v>
+        <v>5.38885580069788</v>
       </c>
       <c r="P109" t="b">
         <v>0</v>
@@ -11160,12 +11160,12 @@
         <v>0</v>
       </c>
       <c r="R109">
-        <v>0.854560520592681</v>
+        <v>0.85456052059268</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="1">
-        <v>13025</v>
+        <v>13103</v>
       </c>
       <c r="B110" t="s">
         <v>125</v>
@@ -11221,7 +11221,7 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="1">
-        <v>11378</v>
+        <v>11359</v>
       </c>
       <c r="B111" t="s">
         <v>126</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="1">
-        <v>11672</v>
+        <v>11653</v>
       </c>
       <c r="B112" t="s">
         <v>127</v>
@@ -11319,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="O112">
-        <v>5.30028457264703</v>
+        <v>5.30028457264704</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="1">
-        <v>11383</v>
+        <v>11364</v>
       </c>
       <c r="B113" t="s">
         <v>128</v>
@@ -11375,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="O113">
-        <v>5.28737251798177</v>
+        <v>5.28737251798176</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="1">
-        <v>4323</v>
+        <v>3999</v>
       </c>
       <c r="B114" t="s">
         <v>129</v>
@@ -11445,7 +11445,7 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="1">
-        <v>4932</v>
+        <v>4608</v>
       </c>
       <c r="B115" t="s">
         <v>130</v>
@@ -11496,12 +11496,12 @@
         <v>1</v>
       </c>
       <c r="R115">
-        <v>0.845743300288363</v>
+        <v>0.845743300288364</v>
       </c>
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="1">
-        <v>12949</v>
+        <v>13027</v>
       </c>
       <c r="B116" t="s">
         <v>131</v>
@@ -11543,7 +11543,7 @@
         <v>1</v>
       </c>
       <c r="O116">
-        <v>5.23238555149843</v>
+        <v>5.23238555149844</v>
       </c>
       <c r="P116" t="b">
         <v>0</v>
@@ -11557,7 +11557,7 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="1">
-        <v>4452</v>
+        <v>4128</v>
       </c>
       <c r="B117" t="s">
         <v>132</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="1">
-        <v>4905</v>
+        <v>5202</v>
       </c>
       <c r="B118" t="s">
         <v>133</v>
@@ -11664,12 +11664,12 @@
         <v>0</v>
       </c>
       <c r="R118">
-        <v>0.84168006207525</v>
+        <v>0.841680062075251</v>
       </c>
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="1">
-        <v>4786</v>
+        <v>5110</v>
       </c>
       <c r="B119" t="s">
         <v>134</v>
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="O119">
-        <v>5.1348684193287</v>
+        <v>5.13486841932871</v>
       </c>
       <c r="P119" t="b">
         <v>0</v>
@@ -11720,12 +11720,12 @@
         <v>1</v>
       </c>
       <c r="R119">
-        <v>0.837816358088447</v>
+        <v>0.837816358088448</v>
       </c>
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="1">
-        <v>5163</v>
+        <v>5325</v>
       </c>
       <c r="B120" t="s">
         <v>135</v>
@@ -11767,7 +11767,7 @@
         <v>1</v>
       </c>
       <c r="O120">
-        <v>5.13073838326471</v>
+        <v>5.1307383832647</v>
       </c>
       <c r="P120" t="b">
         <v>0</v>
@@ -11776,12 +11776,12 @@
         <v>0</v>
       </c>
       <c r="R120">
-        <v>0.837529632025077</v>
+        <v>0.837529632025076</v>
       </c>
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="1">
-        <v>12720</v>
+        <v>12798</v>
       </c>
       <c r="B121" t="s">
         <v>136</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="O121">
-        <v>5.13033834142279</v>
+        <v>5.13033834142278</v>
       </c>
       <c r="P121" t="b">
         <v>0</v>
@@ -11832,12 +11832,12 @@
         <v>0</v>
       </c>
       <c r="R121">
-        <v>0.837501833951241</v>
+        <v>0.83750183395124</v>
       </c>
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="1">
-        <v>11609</v>
+        <v>11590</v>
       </c>
       <c r="B122" t="s">
         <v>137</v>
@@ -11879,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="O122">
-        <v>5.09951247687612</v>
+        <v>5.09951247687614</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
@@ -11888,12 +11888,12 @@
         <v>0</v>
       </c>
       <c r="R122">
-        <v>0.835346296875387</v>
+        <v>0.835346296875388</v>
       </c>
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="1">
-        <v>12907</v>
+        <v>12985</v>
       </c>
       <c r="B123" t="s">
         <v>138</v>
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="O123">
-        <v>5.07679405767841</v>
+        <v>5.07679405767839</v>
       </c>
       <c r="P123" t="b">
         <v>0</v>
@@ -11949,7 +11949,7 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="1">
-        <v>4999</v>
+        <v>5242</v>
       </c>
       <c r="B124" t="s">
         <v>139</v>
@@ -11991,7 +11991,7 @@
         <v>1</v>
       </c>
       <c r="O124">
-        <v>5.06120871844157</v>
+        <v>5.06120871844158</v>
       </c>
       <c r="P124" t="b">
         <v>0</v>
@@ -12000,12 +12000,12 @@
         <v>1</v>
       </c>
       <c r="R124">
-        <v>0.832630381676005</v>
+        <v>0.832630381676006</v>
       </c>
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="1">
-        <v>11374</v>
+        <v>11355</v>
       </c>
       <c r="B125" t="s">
         <v>140</v>
@@ -12047,7 +12047,7 @@
         <v>1</v>
       </c>
       <c r="O125">
-        <v>5.04629664111454</v>
+        <v>5.04629664111453</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
@@ -12056,12 +12056,12 @@
         <v>1</v>
       </c>
       <c r="R125">
-        <v>0.831561702559341</v>
+        <v>0.83156170255934</v>
       </c>
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="1">
-        <v>4848</v>
+        <v>5172</v>
       </c>
       <c r="B126" t="s">
         <v>141</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="1">
-        <v>4852</v>
+        <v>5176</v>
       </c>
       <c r="B127" t="s">
         <v>142</v>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="1">
-        <v>12843</v>
+        <v>12921</v>
       </c>
       <c r="B128" t="s">
         <v>143</v>
@@ -12224,12 +12224,12 @@
         <v>0</v>
       </c>
       <c r="R128">
-        <v>0.827501372958259</v>
+        <v>0.82750137295826</v>
       </c>
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="1">
-        <v>12918</v>
+        <v>12996</v>
       </c>
       <c r="B129" t="s">
         <v>144</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="O129">
-        <v>4.96251377360801</v>
+        <v>4.96251377360802</v>
       </c>
       <c r="P129" t="b">
         <v>0</v>
@@ -12280,12 +12280,12 @@
         <v>0</v>
       </c>
       <c r="R129">
-        <v>0.82543726046916</v>
+        <v>0.825437260469161</v>
       </c>
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="1">
-        <v>11471</v>
+        <v>11452</v>
       </c>
       <c r="B130" t="s">
         <v>145</v>
@@ -12341,7 +12341,7 @@
     </row>
     <row r="131" spans="1:18">
       <c r="A131" s="1">
-        <v>4681</v>
+        <v>5005</v>
       </c>
       <c r="B131" t="s">
         <v>146</v>
@@ -12397,7 +12397,7 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="1">
-        <v>4744</v>
+        <v>5068</v>
       </c>
       <c r="B132" t="s">
         <v>147</v>
@@ -12453,7 +12453,7 @@
     </row>
     <row r="133" spans="1:18">
       <c r="A133" s="1">
-        <v>4732</v>
+        <v>5056</v>
       </c>
       <c r="B133" t="s">
         <v>148</v>
@@ -12495,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="O133">
-        <v>4.81049006579122</v>
+        <v>4.81049006579121</v>
       </c>
       <c r="P133" t="b">
         <v>0</v>
@@ -12504,12 +12504,12 @@
         <v>1</v>
       </c>
       <c r="R133">
-        <v>0.813788294140445</v>
+        <v>0.813788294140444</v>
       </c>
     </row>
     <row r="134" spans="1:18">
       <c r="A134" s="1">
-        <v>13079</v>
+        <v>13157</v>
       </c>
       <c r="B134" t="s">
         <v>149</v>
@@ -12565,7 +12565,7 @@
     </row>
     <row r="135" spans="1:18">
       <c r="A135" s="1">
-        <v>4775</v>
+        <v>4451</v>
       </c>
       <c r="B135" t="s">
         <v>150</v>
@@ -12616,12 +12616,12 @@
         <v>0</v>
       </c>
       <c r="R135">
-        <v>0.809028000860688</v>
+        <v>0.809028000860689</v>
       </c>
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="1">
-        <v>11494</v>
+        <v>11475</v>
       </c>
       <c r="B136" t="s">
         <v>151</v>
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="O136">
-        <v>4.74957123564823</v>
+        <v>4.74957123564824</v>
       </c>
       <c r="P136" t="b">
         <v>0</v>
@@ -12677,7 +12677,7 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" s="1">
-        <v>11294</v>
+        <v>11275</v>
       </c>
       <c r="B137" t="s">
         <v>152</v>
@@ -12719,7 +12719,7 @@
         <v>1</v>
       </c>
       <c r="O137">
-        <v>4.72033368415715</v>
+        <v>4.72033368415714</v>
       </c>
       <c r="P137" t="b">
         <v>0</v>
@@ -12728,12 +12728,12 @@
         <v>0</v>
       </c>
       <c r="R137">
-        <v>0.80654092406441</v>
+        <v>0.806540924064408</v>
       </c>
     </row>
     <row r="138" spans="1:18">
       <c r="A138" s="1">
-        <v>12775</v>
+        <v>12853</v>
       </c>
       <c r="B138" t="s">
         <v>153</v>
@@ -12775,7 +12775,7 @@
         <v>1</v>
       </c>
       <c r="O138">
-        <v>4.68899633051346</v>
+        <v>4.68899633051347</v>
       </c>
       <c r="P138" t="b">
         <v>0</v>
@@ -12789,7 +12789,7 @@
     </row>
     <row r="139" spans="1:18">
       <c r="A139" s="1">
-        <v>11453</v>
+        <v>11434</v>
       </c>
       <c r="B139" t="s">
         <v>154</v>
@@ -12831,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="O139">
-        <v>4.67307393264478</v>
+        <v>4.67307393264479</v>
       </c>
       <c r="P139" t="b">
         <v>1</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="1">
-        <v>4722</v>
+        <v>4398</v>
       </c>
       <c r="B140" t="s">
         <v>155</v>
@@ -12887,7 +12887,7 @@
         <v>1</v>
       </c>
       <c r="O140">
-        <v>4.66206314968691</v>
+        <v>4.66206314968692</v>
       </c>
       <c r="P140" t="b">
         <v>0</v>
@@ -12901,7 +12901,7 @@
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="1">
-        <v>5053</v>
+        <v>5269</v>
       </c>
       <c r="B141" t="s">
         <v>156</v>
@@ -12943,7 +12943,7 @@
         <v>1</v>
       </c>
       <c r="O141">
-        <v>4.59622047642794</v>
+        <v>4.59622047642795</v>
       </c>
       <c r="P141" t="b">
         <v>0</v>
@@ -12952,12 +12952,12 @@
         <v>0</v>
       </c>
       <c r="R141">
-        <v>0.796133451797323</v>
+        <v>0.796133451797324</v>
       </c>
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="1">
-        <v>4698</v>
+        <v>4374</v>
       </c>
       <c r="B142" t="s">
         <v>157</v>
@@ -12999,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="O142">
-        <v>4.57542802098584</v>
+        <v>4.57542802098585</v>
       </c>
       <c r="P142" t="b">
         <v>0</v>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="1">
-        <v>11651</v>
+        <v>11632</v>
       </c>
       <c r="B143" t="s">
         <v>158</v>
@@ -13055,7 +13055,7 @@
         <v>1</v>
       </c>
       <c r="O143">
-        <v>4.53364574643518</v>
+        <v>4.53364574643519</v>
       </c>
       <c r="P143" t="b">
         <v>0</v>
@@ -13064,12 +13064,12 @@
         <v>0</v>
       </c>
       <c r="R143">
-        <v>0.790691273929752</v>
+        <v>0.790691273929753</v>
       </c>
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="1">
-        <v>4902</v>
+        <v>5199</v>
       </c>
       <c r="B144" t="s">
         <v>159</v>
@@ -13111,7 +13111,7 @@
         <v>1</v>
       </c>
       <c r="O144">
-        <v>4.47495160754102</v>
+        <v>4.47495160754103</v>
       </c>
       <c r="P144" t="b">
         <v>1</v>
@@ -13125,7 +13125,7 @@
     </row>
     <row r="145" spans="1:18">
       <c r="A145" s="1">
-        <v>11393</v>
+        <v>11374</v>
       </c>
       <c r="B145" t="s">
         <v>160</v>
@@ -13167,7 +13167,7 @@
         <v>1</v>
       </c>
       <c r="O145">
-        <v>4.44971478708241</v>
+        <v>4.44971478708242</v>
       </c>
       <c r="P145" t="b">
         <v>0</v>
@@ -13176,12 +13176,12 @@
         <v>0</v>
       </c>
       <c r="R145">
-        <v>0.783180290719944</v>
+        <v>0.783180290719946</v>
       </c>
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="1">
-        <v>4778</v>
+        <v>4454</v>
       </c>
       <c r="B146" t="s">
         <v>161</v>
@@ -13232,12 +13232,12 @@
         <v>0</v>
       </c>
       <c r="R146">
-        <v>0.780777343854347</v>
+        <v>0.780777343854348</v>
       </c>
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="1">
-        <v>11470</v>
+        <v>11451</v>
       </c>
       <c r="B147" t="s">
         <v>162</v>
@@ -13288,12 +13288,12 @@
         <v>0</v>
       </c>
       <c r="R147">
-        <v>0.779897196866913</v>
+        <v>0.779897196866914</v>
       </c>
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="1">
-        <v>4394</v>
+        <v>4070</v>
       </c>
       <c r="B148" t="s">
         <v>163</v>
@@ -13335,7 +13335,7 @@
         <v>1</v>
       </c>
       <c r="O148">
-        <v>4.40007118971194</v>
+        <v>4.40007118971195</v>
       </c>
       <c r="P148" t="b">
         <v>0</v>
@@ -13344,12 +13344,12 @@
         <v>0</v>
       </c>
       <c r="R148">
-        <v>0.778621213659646</v>
+        <v>0.778621213659647</v>
       </c>
     </row>
     <row r="149" spans="1:18">
       <c r="A149" s="1">
-        <v>4342</v>
+        <v>4018</v>
       </c>
       <c r="B149" t="s">
         <v>164</v>
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="O149">
-        <v>4.38609234742824</v>
+        <v>4.38609234742825</v>
       </c>
       <c r="P149" t="b">
         <v>0</v>
@@ -13400,12 +13400,12 @@
         <v>0</v>
       </c>
       <c r="R149">
-        <v>0.777321580556862</v>
+        <v>0.777321580556865</v>
       </c>
     </row>
     <row r="150" spans="1:18">
       <c r="A150" s="1">
-        <v>5220</v>
+        <v>5355</v>
       </c>
       <c r="B150" t="s">
         <v>165</v>
@@ -13461,7 +13461,7 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="1">
-        <v>4937</v>
+        <v>4613</v>
       </c>
       <c r="B151" t="s">
         <v>166</v>
@@ -13512,12 +13512,12 @@
         <v>0</v>
       </c>
       <c r="R151">
-        <v>0.769088106152021</v>
+        <v>0.76908810615202</v>
       </c>
     </row>
     <row r="152" spans="1:18">
       <c r="A152" s="1">
-        <v>4752</v>
+        <v>4428</v>
       </c>
       <c r="B152" t="s">
         <v>167</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="153" spans="1:18">
       <c r="A153" s="1">
-        <v>4950</v>
+        <v>5220</v>
       </c>
       <c r="B153" t="s">
         <v>168</v>
@@ -13615,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="O153">
-        <v>4.23936177939689</v>
+        <v>4.23936177939688</v>
       </c>
       <c r="P153" t="b">
         <v>0</v>
@@ -13624,12 +13624,12 @@
         <v>0</v>
       </c>
       <c r="R153">
-        <v>0.76324954714435</v>
+        <v>0.763249547144349</v>
       </c>
     </row>
     <row r="154" spans="1:18">
       <c r="A154" s="1">
-        <v>13002</v>
+        <v>13080</v>
       </c>
       <c r="B154" t="s">
         <v>169</v>
@@ -13685,7 +13685,7 @@
     </row>
     <row r="155" spans="1:18">
       <c r="A155" s="1">
-        <v>5002</v>
+        <v>5245</v>
       </c>
       <c r="B155" t="s">
         <v>170</v>
@@ -13727,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="O155">
-        <v>4.22123182421431</v>
+        <v>4.22123182421432</v>
       </c>
       <c r="P155" t="b">
         <v>0</v>
@@ -13736,12 +13736,12 @@
         <v>0</v>
       </c>
       <c r="R155">
-        <v>0.761455244745383</v>
+        <v>0.761455244745384</v>
       </c>
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="1">
-        <v>12996</v>
+        <v>13074</v>
       </c>
       <c r="B156" t="s">
         <v>171</v>
@@ -13783,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="O156">
-        <v>4.20148386751364</v>
+        <v>4.20148386751363</v>
       </c>
       <c r="P156" t="b">
         <v>1</v>
@@ -13792,12 +13792,12 @@
         <v>0</v>
       </c>
       <c r="R156">
-        <v>0.75948663606838</v>
+        <v>0.759486636068379</v>
       </c>
     </row>
     <row r="157" spans="1:18">
       <c r="A157" s="1">
-        <v>4584</v>
+        <v>4908</v>
       </c>
       <c r="B157" t="s">
         <v>172</v>
@@ -13839,7 +13839,7 @@
         <v>1</v>
       </c>
       <c r="O157">
-        <v>4.19544417166172</v>
+        <v>4.19544417166171</v>
       </c>
       <c r="P157" t="b">
         <v>0</v>
@@ -13848,12 +13848,12 @@
         <v>0</v>
       </c>
       <c r="R157">
-        <v>0.75888159402862</v>
+        <v>0.758881594028619</v>
       </c>
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="1">
-        <v>12782</v>
+        <v>12860</v>
       </c>
       <c r="B158" t="s">
         <v>173</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="O158">
-        <v>4.1657603717587</v>
+        <v>4.16576037175869</v>
       </c>
       <c r="P158" t="b">
         <v>0</v>
@@ -13904,12 +13904,12 @@
         <v>0</v>
       </c>
       <c r="R158">
-        <v>0.75588764370898</v>
+        <v>0.755887643708978</v>
       </c>
     </row>
     <row r="159" spans="1:18">
       <c r="A159" s="1">
-        <v>4432</v>
+        <v>4108</v>
       </c>
       <c r="B159" t="s">
         <v>174</v>
@@ -13951,7 +13951,7 @@
         <v>1</v>
       </c>
       <c r="O159">
-        <v>4.15179237279569</v>
+        <v>4.15179237279568</v>
       </c>
       <c r="P159" t="b">
         <v>0</v>
@@ -13965,7 +13965,7 @@
     </row>
     <row r="160" spans="1:18">
       <c r="A160" s="1">
-        <v>4853</v>
+        <v>5177</v>
       </c>
       <c r="B160" t="s">
         <v>175</v>
@@ -14021,7 +14021,7 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161" s="1">
-        <v>12818</v>
+        <v>12896</v>
       </c>
       <c r="B161" t="s">
         <v>176</v>
@@ -14077,7 +14077,7 @@
     </row>
     <row r="162" spans="1:18">
       <c r="A162" s="1">
-        <v>4797</v>
+        <v>5121</v>
       </c>
       <c r="B162" t="s">
         <v>177</v>
@@ -14119,7 +14119,7 @@
         <v>1</v>
       </c>
       <c r="O162">
-        <v>4.11427704584553</v>
+        <v>4.11427704584552</v>
       </c>
       <c r="P162" t="b">
         <v>0</v>
@@ -14128,12 +14128,12 @@
         <v>0</v>
       </c>
       <c r="R162">
-        <v>0.750614256379542</v>
+        <v>0.750614256379541</v>
       </c>
     </row>
     <row r="163" spans="1:18">
       <c r="A163" s="1">
-        <v>11608</v>
+        <v>11589</v>
       </c>
       <c r="B163" t="s">
         <v>178</v>
@@ -14175,7 +14175,7 @@
         <v>1</v>
       </c>
       <c r="O163">
-        <v>4.10601486199771</v>
+        <v>4.1060148619977</v>
       </c>
       <c r="P163" t="b">
         <v>0</v>
@@ -14184,12 +14184,12 @@
         <v>0</v>
       </c>
       <c r="R163">
-        <v>0.749758348885473</v>
+        <v>0.749758348885471</v>
       </c>
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="1">
-        <v>4805</v>
+        <v>5129</v>
       </c>
       <c r="B164" t="s">
         <v>179</v>
@@ -14240,12 +14240,12 @@
         <v>0</v>
       </c>
       <c r="R164">
-        <v>0.748028742716576</v>
+        <v>0.748028742716575</v>
       </c>
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="1">
-        <v>4684</v>
+        <v>5008</v>
       </c>
       <c r="B165" t="s">
         <v>180</v>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="166" spans="1:18">
       <c r="A166" s="1">
-        <v>12852</v>
+        <v>12930</v>
       </c>
       <c r="B166" t="s">
         <v>181</v>
@@ -14343,7 +14343,7 @@
         <v>1</v>
       </c>
       <c r="O166">
-        <v>4.07258382203652</v>
+        <v>4.07258382203653</v>
       </c>
       <c r="P166" t="b">
         <v>0</v>
@@ -14357,7 +14357,7 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="1">
-        <v>12838</v>
+        <v>12916</v>
       </c>
       <c r="B167" t="s">
         <v>182</v>
@@ -14399,7 +14399,7 @@
         <v>1</v>
       </c>
       <c r="O167">
-        <v>4.03166169378068</v>
+        <v>4.03166169378067</v>
       </c>
       <c r="P167" t="b">
         <v>0</v>
@@ -14408,12 +14408,12 @@
         <v>0</v>
       </c>
       <c r="R167">
-        <v>0.741934526938434</v>
+        <v>0.741934526938433</v>
       </c>
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="1">
-        <v>11570</v>
+        <v>11551</v>
       </c>
       <c r="B168" t="s">
         <v>183</v>
@@ -14469,7 +14469,7 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169" s="1">
-        <v>4791</v>
+        <v>5115</v>
       </c>
       <c r="B169" t="s">
         <v>184</v>
@@ -14525,7 +14525,7 @@
     </row>
     <row r="170" spans="1:18">
       <c r="A170" s="1">
-        <v>4888</v>
+        <v>5185</v>
       </c>
       <c r="B170" t="s">
         <v>185</v>
@@ -14581,7 +14581,7 @@
     </row>
     <row r="171" spans="1:18">
       <c r="A171" s="1">
-        <v>11521</v>
+        <v>11502</v>
       </c>
       <c r="B171" t="s">
         <v>186</v>
@@ -14637,7 +14637,7 @@
     </row>
     <row r="172" spans="1:18">
       <c r="A172" s="1">
-        <v>11396</v>
+        <v>11377</v>
       </c>
       <c r="B172" t="s">
         <v>187</v>
@@ -14688,12 +14688,12 @@
         <v>0</v>
       </c>
       <c r="R172">
-        <v>0.734445276852136</v>
+        <v>0.734445276852134</v>
       </c>
     </row>
     <row r="173" spans="1:18">
       <c r="A173" s="1">
-        <v>4738</v>
+        <v>5062</v>
       </c>
       <c r="B173" t="s">
         <v>188</v>
@@ -14735,7 +14735,7 @@
         <v>1</v>
       </c>
       <c r="O173">
-        <v>3.9535831469773</v>
+        <v>3.95358314697731</v>
       </c>
       <c r="P173" t="b">
         <v>0</v>
@@ -14749,7 +14749,7 @@
     </row>
     <row r="174" spans="1:18">
       <c r="A174" s="1">
-        <v>12765</v>
+        <v>12843</v>
       </c>
       <c r="B174" t="s">
         <v>189</v>
@@ -14791,7 +14791,7 @@
         <v>1</v>
       </c>
       <c r="O174">
-        <v>3.94926839847389</v>
+        <v>3.94926839847391</v>
       </c>
       <c r="P174" t="b">
         <v>0</v>
@@ -14800,12 +14800,12 @@
         <v>0</v>
       </c>
       <c r="R174">
-        <v>0.733005407980935</v>
+        <v>0.733005407980936</v>
       </c>
     </row>
     <row r="175" spans="1:18">
       <c r="A175" s="1">
-        <v>12792</v>
+        <v>12870</v>
       </c>
       <c r="B175" t="s">
         <v>190</v>
@@ -14847,7 +14847,7 @@
         <v>1</v>
       </c>
       <c r="O175">
-        <v>3.94570749766389</v>
+        <v>3.9457074976639</v>
       </c>
       <c r="P175" t="b">
         <v>0</v>
@@ -14856,12 +14856,12 @@
         <v>0</v>
       </c>
       <c r="R175">
-        <v>0.732613265170865</v>
+        <v>0.732613265170866</v>
       </c>
     </row>
     <row r="176" spans="1:18">
       <c r="A176" s="1">
-        <v>12931</v>
+        <v>13009</v>
       </c>
       <c r="B176" t="s">
         <v>191</v>
@@ -14903,7 +14903,7 @@
         <v>1</v>
       </c>
       <c r="O176">
-        <v>3.90639453773444</v>
+        <v>3.90639453773443</v>
       </c>
       <c r="P176" t="b">
         <v>0</v>
@@ -14917,7 +14917,7 @@
     </row>
     <row r="177" spans="1:18">
       <c r="A177" s="1">
-        <v>11505</v>
+        <v>11486</v>
       </c>
       <c r="B177" t="s">
         <v>192</v>
@@ -14959,7 +14959,7 @@
         <v>1</v>
       </c>
       <c r="O177">
-        <v>3.86170298513805</v>
+        <v>3.86170298513804</v>
       </c>
       <c r="P177" t="b">
         <v>0</v>
@@ -14968,12 +14968,12 @@
         <v>0</v>
       </c>
       <c r="R177">
-        <v>0.723209845028077</v>
+        <v>0.723209845028076</v>
       </c>
     </row>
     <row r="178" spans="1:18">
       <c r="A178" s="1">
-        <v>12728</v>
+        <v>12806</v>
       </c>
       <c r="B178" t="s">
         <v>193</v>
@@ -15024,12 +15024,12 @@
         <v>0</v>
       </c>
       <c r="R178">
-        <v>0.721588093595202</v>
+        <v>0.721588093595203</v>
       </c>
     </row>
     <row r="179" spans="1:18">
       <c r="A179" s="1">
-        <v>11572</v>
+        <v>11553</v>
       </c>
       <c r="B179" t="s">
         <v>194</v>
@@ -15071,7 +15071,7 @@
         <v>1</v>
       </c>
       <c r="O179">
-        <v>3.84073964718954</v>
+        <v>3.84073964718953</v>
       </c>
       <c r="P179" t="b">
         <v>0</v>
@@ -15080,12 +15080,12 @@
         <v>0</v>
       </c>
       <c r="R179">
-        <v>0.720817143768039</v>
+        <v>0.720817143768038</v>
       </c>
     </row>
     <row r="180" spans="1:18">
       <c r="A180" s="1">
-        <v>4796</v>
+        <v>5120</v>
       </c>
       <c r="B180" t="s">
         <v>195</v>
@@ -15127,7 +15127,7 @@
         <v>1</v>
       </c>
       <c r="O180">
-        <v>3.81896625165575</v>
+        <v>3.81896625165576</v>
       </c>
       <c r="P180" t="b">
         <v>0</v>
@@ -15141,7 +15141,7 @@
     </row>
     <row r="181" spans="1:18">
       <c r="A181" s="1">
-        <v>4636</v>
+        <v>4960</v>
       </c>
       <c r="B181" t="s">
         <v>196</v>
@@ -15197,7 +15197,7 @@
     </row>
     <row r="182" spans="1:18">
       <c r="A182" s="1">
-        <v>12836</v>
+        <v>12914</v>
       </c>
       <c r="B182" t="s">
         <v>197</v>
@@ -15253,7 +15253,7 @@
     </row>
     <row r="183" spans="1:18">
       <c r="A183" s="1">
-        <v>11389</v>
+        <v>11370</v>
       </c>
       <c r="B183" t="s">
         <v>198</v>
@@ -15295,7 +15295,7 @@
         <v>1</v>
       </c>
       <c r="O183">
-        <v>3.72704646677986</v>
+        <v>3.72704646677987</v>
       </c>
       <c r="P183" t="b">
         <v>0</v>
@@ -15304,12 +15304,12 @@
         <v>0</v>
       </c>
       <c r="R183">
-        <v>0.707513351577156</v>
+        <v>0.707513351577157</v>
       </c>
     </row>
     <row r="184" spans="1:18">
       <c r="A184" s="1">
-        <v>4743</v>
+        <v>5067</v>
       </c>
       <c r="B184" t="s">
         <v>199</v>
@@ -15365,7 +15365,7 @@
     </row>
     <row r="185" spans="1:18">
       <c r="A185" s="1">
-        <v>11562</v>
+        <v>11543</v>
       </c>
       <c r="B185" t="s">
         <v>200</v>
@@ -15407,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="O185">
-        <v>3.69829581523766</v>
+        <v>3.69829581523765</v>
       </c>
       <c r="P185" t="b">
         <v>0</v>
@@ -15421,7 +15421,7 @@
     </row>
     <row r="186" spans="1:18">
       <c r="A186" s="1">
-        <v>4585</v>
+        <v>4909</v>
       </c>
       <c r="B186" t="s">
         <v>201</v>
@@ -15463,7 +15463,7 @@
         <v>1</v>
       </c>
       <c r="O186">
-        <v>3.68624112644987</v>
+        <v>3.68624112644988</v>
       </c>
       <c r="P186" t="b">
         <v>0</v>
@@ -15477,7 +15477,7 @@
     </row>
     <row r="187" spans="1:18">
       <c r="A187" s="1">
-        <v>5060</v>
+        <v>5276</v>
       </c>
       <c r="B187" t="s">
         <v>202</v>
@@ -15528,12 +15528,12 @@
         <v>0</v>
       </c>
       <c r="R187">
-        <v>0.70011616166386</v>
+        <v>0.700116161663861</v>
       </c>
     </row>
     <row r="188" spans="1:18">
       <c r="A188" s="1">
-        <v>11462</v>
+        <v>11443</v>
       </c>
       <c r="B188" t="s">
         <v>203</v>
@@ -15575,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="O188">
-        <v>3.60529689970776</v>
+        <v>3.60529689970775</v>
       </c>
       <c r="P188" t="b">
         <v>0</v>
@@ -15584,12 +15584,12 @@
         <v>0</v>
       </c>
       <c r="R188">
-        <v>0.692639949855498</v>
+        <v>0.692639949855497</v>
       </c>
     </row>
     <row r="189" spans="1:18">
       <c r="A189" s="1">
-        <v>12820</v>
+        <v>12898</v>
       </c>
       <c r="B189" t="s">
         <v>204</v>
@@ -15645,7 +15645,7 @@
     </row>
     <row r="190" spans="1:18">
       <c r="A190" s="1">
-        <v>4874</v>
+        <v>4550</v>
       </c>
       <c r="B190" t="s">
         <v>205</v>
@@ -15696,12 +15696,12 @@
         <v>0</v>
       </c>
       <c r="R190">
-        <v>0.687903095204756</v>
+        <v>0.687903095204757</v>
       </c>
     </row>
     <row r="191" spans="1:18">
       <c r="A191" s="1">
-        <v>4880</v>
+        <v>4556</v>
       </c>
       <c r="B191" t="s">
         <v>206</v>
@@ -15757,7 +15757,7 @@
     </row>
     <row r="192" spans="1:18">
       <c r="A192" s="1">
-        <v>11610</v>
+        <v>11591</v>
       </c>
       <c r="B192" t="s">
         <v>207</v>
@@ -15799,7 +15799,7 @@
         <v>1</v>
       </c>
       <c r="O192">
-        <v>3.55246013114568</v>
+        <v>3.55246013114567</v>
       </c>
       <c r="P192" t="b">
         <v>0</v>
@@ -15808,12 +15808,12 @@
         <v>0</v>
       </c>
       <c r="R192">
-        <v>0.685978315627401</v>
+        <v>0.6859783156274</v>
       </c>
     </row>
     <row r="193" spans="1:18">
       <c r="A193" s="1">
-        <v>11513</v>
+        <v>11494</v>
       </c>
       <c r="B193" t="s">
         <v>208</v>
@@ -15855,7 +15855,7 @@
         <v>1</v>
       </c>
       <c r="O193">
-        <v>3.53492630445397</v>
+        <v>3.53492630445396</v>
       </c>
       <c r="P193" t="b">
         <v>0</v>
@@ -15869,7 +15869,7 @@
     </row>
     <row r="194" spans="1:18">
       <c r="A194" s="1">
-        <v>4587</v>
+        <v>4911</v>
       </c>
       <c r="B194" t="s">
         <v>209</v>
@@ -15911,7 +15911,7 @@
         <v>1</v>
       </c>
       <c r="O194">
-        <v>3.52686130263085</v>
+        <v>3.52686130263086</v>
       </c>
       <c r="P194" t="b">
         <v>0</v>
@@ -15925,7 +15925,7 @@
     </row>
     <row r="195" spans="1:18">
       <c r="A195" s="1">
-        <v>11506</v>
+        <v>11487</v>
       </c>
       <c r="B195" t="s">
         <v>210</v>
@@ -15967,7 +15967,7 @@
         <v>1</v>
       </c>
       <c r="O195">
-        <v>3.51831131919276</v>
+        <v>3.51831131919275</v>
       </c>
       <c r="P195" t="b">
         <v>1</v>
@@ -15981,7 +15981,7 @@
     </row>
     <row r="196" spans="1:18">
       <c r="A196" s="1">
-        <v>11629</v>
+        <v>11610</v>
       </c>
       <c r="B196" t="s">
         <v>211</v>
@@ -16037,7 +16037,7 @@
     </row>
     <row r="197" spans="1:18">
       <c r="A197" s="1">
-        <v>4496</v>
+        <v>4172</v>
       </c>
       <c r="B197" t="s">
         <v>212</v>
@@ -16079,7 +16079,7 @@
         <v>1</v>
       </c>
       <c r="O197">
-        <v>3.50128332335835</v>
+        <v>3.50128332335836</v>
       </c>
       <c r="P197" t="b">
         <v>0</v>
@@ -16088,12 +16088,12 @@
         <v>0</v>
       </c>
       <c r="R197">
-        <v>0.679404283790591</v>
+        <v>0.67940428379059</v>
       </c>
     </row>
     <row r="198" spans="1:18">
       <c r="A198" s="1">
-        <v>4926</v>
+        <v>4602</v>
       </c>
       <c r="B198" t="s">
         <v>213</v>
@@ -16135,7 +16135,7 @@
         <v>1</v>
       </c>
       <c r="O198">
-        <v>3.50010345617989</v>
+        <v>3.50010345617988</v>
       </c>
       <c r="P198" t="b">
         <v>0</v>
@@ -16144,12 +16144,12 @@
         <v>0</v>
       </c>
       <c r="R198">
-        <v>0.679251296865998</v>
+        <v>0.679251296865997</v>
       </c>
     </row>
     <row r="199" spans="1:18">
       <c r="A199" s="1">
-        <v>12825</v>
+        <v>12903</v>
       </c>
       <c r="B199" t="s">
         <v>214</v>
@@ -16191,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="O199">
-        <v>3.49845530267559</v>
+        <v>3.49845530267558</v>
       </c>
       <c r="P199" t="b">
         <v>0</v>
@@ -16200,12 +16200,12 @@
         <v>0</v>
       </c>
       <c r="R199">
-        <v>0.679037481863532</v>
+        <v>0.679037481863531</v>
       </c>
     </row>
     <row r="200" spans="1:18">
       <c r="A200" s="1">
-        <v>11444</v>
+        <v>11425</v>
       </c>
       <c r="B200" t="s">
         <v>215</v>
@@ -16256,12 +16256,12 @@
         <v>0</v>
       </c>
       <c r="R200">
-        <v>0.678468579128382</v>
+        <v>0.678468579128383</v>
       </c>
     </row>
     <row r="201" spans="1:18">
       <c r="A201" s="1">
-        <v>4961</v>
+        <v>5231</v>
       </c>
       <c r="B201" t="s">
         <v>216</v>
@@ -16303,7 +16303,7 @@
         <v>1</v>
       </c>
       <c r="O201">
-        <v>3.48960130379984</v>
+        <v>3.48960130379983</v>
       </c>
       <c r="P201" t="b">
         <v>0</v>
@@ -16312,12 +16312,12 @@
         <v>0</v>
       </c>
       <c r="R201">
-        <v>0.67788669669932</v>
+        <v>0.677886696699319</v>
       </c>
     </row>
     <row r="202" spans="1:18">
       <c r="A202" s="1">
-        <v>11479</v>
+        <v>11460</v>
       </c>
       <c r="B202" t="s">
         <v>217</v>
@@ -16359,7 +16359,7 @@
         <v>1</v>
       </c>
       <c r="O202">
-        <v>3.48395177193145</v>
+        <v>3.48395177193146</v>
       </c>
       <c r="P202" t="b">
         <v>0</v>
@@ -16368,12 +16368,12 @@
         <v>0</v>
       </c>
       <c r="R202">
-        <v>0.677150505314623</v>
+        <v>0.677150505314624</v>
       </c>
     </row>
     <row r="203" spans="1:18">
       <c r="A203" s="1">
-        <v>4947</v>
+        <v>5217</v>
       </c>
       <c r="B203" t="s">
         <v>218</v>
@@ -16424,12 +16424,12 @@
         <v>0</v>
       </c>
       <c r="R203">
-        <v>0.676642981239275</v>
+        <v>0.676642981239276</v>
       </c>
     </row>
     <row r="204" spans="1:18">
       <c r="A204" s="1">
-        <v>11429</v>
+        <v>11410</v>
       </c>
       <c r="B204" t="s">
         <v>219</v>
@@ -16480,12 +16480,12 @@
         <v>0</v>
       </c>
       <c r="R204">
-        <v>0.676586114163848</v>
+        <v>0.676586114163849</v>
       </c>
     </row>
     <row r="205" spans="1:18">
       <c r="A205" s="1">
-        <v>13085</v>
+        <v>13163</v>
       </c>
       <c r="B205" t="s">
         <v>220</v>
@@ -16536,12 +16536,12 @@
         <v>0</v>
       </c>
       <c r="R205">
-        <v>0.67452819411605</v>
+        <v>0.674528194116051</v>
       </c>
     </row>
     <row r="206" spans="1:18">
       <c r="A206" s="1">
-        <v>12755</v>
+        <v>12833</v>
       </c>
       <c r="B206" t="s">
         <v>221</v>
@@ -16583,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="O206">
-        <v>3.45480053568445</v>
+        <v>3.45480053568444</v>
       </c>
       <c r="P206" t="b">
         <v>0</v>
@@ -16592,12 +16592,12 @@
         <v>0</v>
       </c>
       <c r="R206">
-        <v>0.673328171727555</v>
+        <v>0.673328171727553</v>
       </c>
     </row>
     <row r="207" spans="1:18">
       <c r="A207" s="1">
-        <v>4451</v>
+        <v>4127</v>
       </c>
       <c r="B207" t="s">
         <v>222</v>
@@ -16639,7 +16639,7 @@
         <v>1</v>
       </c>
       <c r="O207">
-        <v>3.44744221908944</v>
+        <v>3.44744221908945</v>
       </c>
       <c r="P207" t="b">
         <v>0</v>
@@ -16653,7 +16653,7 @@
     </row>
     <row r="208" spans="1:18">
       <c r="A208" s="1">
-        <v>4663</v>
+        <v>4339</v>
       </c>
       <c r="B208" t="s">
         <v>223</v>
@@ -16704,12 +16704,12 @@
         <v>0</v>
       </c>
       <c r="R208">
-        <v>0.670968992364796</v>
+        <v>0.670968992364795</v>
       </c>
     </row>
     <row r="209" spans="1:18">
       <c r="A209" s="1">
-        <v>4562</v>
+        <v>4238</v>
       </c>
       <c r="B209" t="s">
         <v>224</v>
@@ -16751,7 +16751,7 @@
         <v>1</v>
       </c>
       <c r="O209">
-        <v>3.43281650842068</v>
+        <v>3.43281650842067</v>
       </c>
       <c r="P209" t="b">
         <v>0</v>
@@ -16760,12 +16760,12 @@
         <v>0</v>
       </c>
       <c r="R209">
-        <v>0.670419303611826</v>
+        <v>0.670419303611825</v>
       </c>
     </row>
     <row r="210" spans="1:18">
       <c r="A210" s="1">
-        <v>12910</v>
+        <v>12988</v>
       </c>
       <c r="B210" t="s">
         <v>225</v>
@@ -16821,7 +16821,7 @@
     </row>
     <row r="211" spans="1:18">
       <c r="A211" s="1">
-        <v>11526</v>
+        <v>11507</v>
       </c>
       <c r="B211" t="s">
         <v>226</v>
@@ -16863,7 +16863,7 @@
         <v>1</v>
       </c>
       <c r="O211">
-        <v>3.42376375480972</v>
+        <v>3.42376375480971</v>
       </c>
       <c r="P211" t="b">
         <v>0</v>
@@ -16872,12 +16872,12 @@
         <v>0</v>
       </c>
       <c r="R211">
-        <v>0.669214861504409</v>
+        <v>0.669214861504406</v>
       </c>
     </row>
     <row r="212" spans="1:18">
       <c r="A212" s="1">
-        <v>13056</v>
+        <v>13134</v>
       </c>
       <c r="B212" t="s">
         <v>227</v>
@@ -16933,7 +16933,7 @@
     </row>
     <row r="213" spans="1:18">
       <c r="A213" s="1">
-        <v>4326</v>
+        <v>4002</v>
       </c>
       <c r="B213" t="s">
         <v>228</v>
@@ -16984,12 +16984,12 @@
         <v>0</v>
       </c>
       <c r="R213">
-        <v>0.667089388450301</v>
+        <v>0.667089388450302</v>
       </c>
     </row>
     <row r="214" spans="1:18">
       <c r="A214" s="1">
-        <v>4836</v>
+        <v>5160</v>
       </c>
       <c r="B214" t="s">
         <v>229</v>
@@ -17031,7 +17031,7 @@
         <v>1</v>
       </c>
       <c r="O214">
-        <v>3.38107817771172</v>
+        <v>3.38107817771171</v>
       </c>
       <c r="P214" t="b">
         <v>0</v>
@@ -17040,12 +17040,12 @@
         <v>0</v>
       </c>
       <c r="R214">
-        <v>0.663483449800643</v>
+        <v>0.663483449800642</v>
       </c>
     </row>
     <row r="215" spans="1:18">
       <c r="A215" s="1">
-        <v>13099</v>
+        <v>13177</v>
       </c>
       <c r="B215" t="s">
         <v>230</v>
@@ -17087,7 +17087,7 @@
         <v>1</v>
       </c>
       <c r="O215">
-        <v>3.34897368602987</v>
+        <v>3.34897368602988</v>
       </c>
       <c r="P215" t="b">
         <v>0</v>
@@ -17096,12 +17096,12 @@
         <v>0</v>
       </c>
       <c r="R215">
-        <v>0.659115622541604</v>
+        <v>0.659115622541606</v>
       </c>
     </row>
     <row r="216" spans="1:18">
       <c r="A216" s="1">
-        <v>4437</v>
+        <v>4113</v>
       </c>
       <c r="B216" t="s">
         <v>231</v>
@@ -17157,7 +17157,7 @@
     </row>
     <row r="217" spans="1:18">
       <c r="A217" s="1">
-        <v>4337</v>
+        <v>4013</v>
       </c>
       <c r="B217" t="s">
         <v>232</v>
@@ -17208,12 +17208,12 @@
         <v>0</v>
       </c>
       <c r="R217">
-        <v>0.656303234768132</v>
+        <v>0.65630323476813</v>
       </c>
     </row>
     <row r="218" spans="1:18">
       <c r="A218" s="1">
-        <v>11451</v>
+        <v>11432</v>
       </c>
       <c r="B218" t="s">
         <v>233</v>
@@ -17255,7 +17255,7 @@
         <v>1</v>
       </c>
       <c r="O218">
-        <v>3.30258925192012</v>
+        <v>3.30258925192013</v>
       </c>
       <c r="P218" t="b">
         <v>0</v>
@@ -17264,12 +17264,12 @@
         <v>0</v>
       </c>
       <c r="R218">
-        <v>0.652717568369321</v>
+        <v>0.652717568369324</v>
       </c>
     </row>
     <row r="219" spans="1:18">
       <c r="A219" s="1">
-        <v>4890</v>
+        <v>5187</v>
       </c>
       <c r="B219" t="s">
         <v>234</v>
@@ -17311,7 +17311,7 @@
         <v>1</v>
       </c>
       <c r="O219">
-        <v>3.29847531472015</v>
+        <v>3.29847531472014</v>
       </c>
       <c r="P219" t="b">
         <v>1</v>
@@ -17320,12 +17320,12 @@
         <v>0</v>
       </c>
       <c r="R219">
-        <v>0.652145091082893</v>
+        <v>0.652145091082892</v>
       </c>
     </row>
     <row r="220" spans="1:18">
       <c r="A220" s="1">
-        <v>11601</v>
+        <v>11582</v>
       </c>
       <c r="B220" t="s">
         <v>235</v>
@@ -17381,7 +17381,7 @@
     </row>
     <row r="221" spans="1:18">
       <c r="A221" s="1">
-        <v>11620</v>
+        <v>11601</v>
       </c>
       <c r="B221" t="s">
         <v>236</v>
@@ -17423,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="O221">
-        <v>3.2873019926656</v>
+        <v>3.28730199266561</v>
       </c>
       <c r="P221" t="b">
         <v>0</v>
@@ -17432,12 +17432,12 @@
         <v>0</v>
       </c>
       <c r="R221">
-        <v>0.650586115227034</v>
+        <v>0.650586115227035</v>
       </c>
     </row>
     <row r="222" spans="1:18">
       <c r="A222" s="1">
-        <v>12896</v>
+        <v>12974</v>
       </c>
       <c r="B222" t="s">
         <v>237</v>
@@ -17479,7 +17479,7 @@
         <v>1</v>
       </c>
       <c r="O222">
-        <v>3.28721748585542</v>
+        <v>3.28721748585543</v>
       </c>
       <c r="P222" t="b">
         <v>0</v>
@@ -17488,12 +17488,12 @@
         <v>0</v>
       </c>
       <c r="R222">
-        <v>0.650574301160768</v>
+        <v>0.650574301160769</v>
       </c>
     </row>
     <row r="223" spans="1:18">
       <c r="A223" s="1">
-        <v>5164</v>
+        <v>5326</v>
       </c>
       <c r="B223" t="s">
         <v>238</v>
@@ -17544,12 +17544,12 @@
         <v>0</v>
       </c>
       <c r="R223">
-        <v>0.649921160504394</v>
+        <v>0.649921160504395</v>
       </c>
     </row>
     <row r="224" spans="1:18">
       <c r="A224" s="1">
-        <v>4473</v>
+        <v>4797</v>
       </c>
       <c r="B224" t="s">
         <v>239</v>
@@ -17591,7 +17591,7 @@
         <v>1</v>
       </c>
       <c r="O224">
-        <v>3.28073517178637</v>
+        <v>3.28073517178638</v>
       </c>
       <c r="P224" t="b">
         <v>0</v>
@@ -17600,12 +17600,12 @@
         <v>0</v>
       </c>
       <c r="R224">
-        <v>0.649667036904465</v>
+        <v>0.649667036904469</v>
       </c>
     </row>
     <row r="225" spans="1:18">
       <c r="A225" s="1">
-        <v>12694</v>
+        <v>12772</v>
       </c>
       <c r="B225" t="s">
         <v>240</v>
@@ -17647,7 +17647,7 @@
         <v>1</v>
       </c>
       <c r="O225">
-        <v>3.2731754984558</v>
+        <v>3.27317549845581</v>
       </c>
       <c r="P225" t="b">
         <v>0</v>
@@ -17656,12 +17656,12 @@
         <v>0</v>
       </c>
       <c r="R225">
-        <v>0.648606400271797</v>
+        <v>0.648606400271798</v>
       </c>
     </row>
     <row r="226" spans="1:18">
       <c r="A226" s="1">
-        <v>5006</v>
+        <v>5249</v>
       </c>
       <c r="B226" t="s">
         <v>241</v>
@@ -17712,12 +17712,12 @@
         <v>0</v>
       </c>
       <c r="R226">
-        <v>0.647551098129028</v>
+        <v>0.647551098129026</v>
       </c>
     </row>
     <row r="227" spans="1:18">
       <c r="A227" s="1">
-        <v>5166</v>
+        <v>5328</v>
       </c>
       <c r="B227" t="s">
         <v>242</v>
@@ -17773,7 +17773,7 @@
     </row>
     <row r="228" spans="1:18">
       <c r="A228" s="1">
-        <v>4909</v>
+        <v>5206</v>
       </c>
       <c r="B228" t="s">
         <v>243</v>
@@ -17815,7 +17815,7 @@
         <v>1</v>
       </c>
       <c r="O228">
-        <v>3.25049471481846</v>
+        <v>3.25049471481847</v>
       </c>
       <c r="P228" t="b">
         <v>0</v>
@@ -17824,12 +17824,12 @@
         <v>0</v>
       </c>
       <c r="R228">
-        <v>0.645407495509285</v>
+        <v>0.645407495509288</v>
       </c>
     </row>
     <row r="229" spans="1:18">
       <c r="A229" s="1">
-        <v>11659</v>
+        <v>11640</v>
       </c>
       <c r="B229" t="s">
         <v>244</v>
@@ -17871,7 +17871,7 @@
         <v>1</v>
       </c>
       <c r="O229">
-        <v>3.24876458283107</v>
+        <v>3.24876458283106</v>
       </c>
       <c r="P229" t="b">
         <v>0</v>
@@ -17880,12 +17880,12 @@
         <v>0</v>
       </c>
       <c r="R229">
-        <v>0.645162443579326</v>
+        <v>0.645162443579323</v>
       </c>
     </row>
     <row r="230" spans="1:18">
       <c r="A230" s="1">
-        <v>11293</v>
+        <v>11274</v>
       </c>
       <c r="B230" t="s">
         <v>245</v>
@@ -17927,7 +17927,7 @@
         <v>1</v>
       </c>
       <c r="O230">
-        <v>3.24738791920268</v>
+        <v>3.24738791920269</v>
       </c>
       <c r="P230" t="b">
         <v>0</v>
@@ -17936,12 +17936,12 @@
         <v>0</v>
       </c>
       <c r="R230">
-        <v>0.644967351239029</v>
+        <v>0.64496735123903</v>
       </c>
     </row>
     <row r="231" spans="1:18">
       <c r="A231" s="1">
-        <v>12802</v>
+        <v>12880</v>
       </c>
       <c r="B231" t="s">
         <v>246</v>
@@ -17983,7 +17983,7 @@
         <v>1</v>
       </c>
       <c r="O231">
-        <v>3.24227583351275</v>
+        <v>3.24227583351274</v>
       </c>
       <c r="P231" t="b">
         <v>0</v>
@@ -17997,7 +17997,7 @@
     </row>
     <row r="232" spans="1:18">
       <c r="A232" s="1">
-        <v>11406</v>
+        <v>11387</v>
       </c>
       <c r="B232" t="s">
         <v>247</v>
@@ -18053,7 +18053,7 @@
     </row>
     <row r="233" spans="1:18">
       <c r="A233" s="1">
-        <v>5104</v>
+        <v>5293</v>
       </c>
       <c r="B233" t="s">
         <v>248</v>
@@ -18104,12 +18104,12 @@
         <v>0</v>
       </c>
       <c r="R233">
-        <v>0.639824079583542</v>
+        <v>0.63982407958354</v>
       </c>
     </row>
     <row r="234" spans="1:18">
       <c r="A234" s="1">
-        <v>11639</v>
+        <v>11620</v>
       </c>
       <c r="B234" t="s">
         <v>249</v>
@@ -18151,7 +18151,7 @@
         <v>1</v>
       </c>
       <c r="O234">
-        <v>3.19095021952352</v>
+        <v>3.19095021952351</v>
       </c>
       <c r="P234" t="b">
         <v>0</v>
@@ -18165,7 +18165,7 @@
     </row>
     <row r="235" spans="1:18">
       <c r="A235" s="1">
-        <v>12983</v>
+        <v>13061</v>
       </c>
       <c r="B235" t="s">
         <v>250</v>
@@ -18207,7 +18207,7 @@
         <v>1</v>
       </c>
       <c r="O235">
-        <v>3.1898766712342</v>
+        <v>3.18987667123421</v>
       </c>
       <c r="P235" t="b">
         <v>0</v>
@@ -18216,12 +18216,12 @@
         <v>0</v>
       </c>
       <c r="R235">
-        <v>0.636733829472651</v>
+        <v>0.636733829472649</v>
       </c>
     </row>
     <row r="236" spans="1:18">
       <c r="A236" s="1">
-        <v>11400</v>
+        <v>11381</v>
       </c>
       <c r="B236" t="s">
         <v>251</v>
@@ -18263,7 +18263,7 @@
         <v>1</v>
       </c>
       <c r="O236">
-        <v>3.17963734148122</v>
+        <v>3.17963734148121</v>
       </c>
       <c r="P236" t="b">
         <v>0</v>
@@ -18277,7 +18277,7 @@
     </row>
     <row r="237" spans="1:18">
       <c r="A237" s="1">
-        <v>12784</v>
+        <v>12862</v>
       </c>
       <c r="B237" t="s">
         <v>252</v>
@@ -18328,12 +18328,12 @@
         <v>0</v>
       </c>
       <c r="R237">
-        <v>0.632711278019256</v>
+        <v>0.632711278019258</v>
       </c>
     </row>
     <row r="238" spans="1:18">
       <c r="A238" s="1">
-        <v>4453</v>
+        <v>4129</v>
       </c>
       <c r="B238" t="s">
         <v>253</v>
@@ -18384,12 +18384,12 @@
         <v>0</v>
       </c>
       <c r="R238">
-        <v>0.632085200716579</v>
+        <v>0.632085200716581</v>
       </c>
     </row>
     <row r="239" spans="1:18">
       <c r="A239" s="1">
-        <v>13058</v>
+        <v>13136</v>
       </c>
       <c r="B239" t="s">
         <v>254</v>
@@ -18440,12 +18440,12 @@
         <v>0</v>
       </c>
       <c r="R239">
-        <v>0.631507964749858</v>
+        <v>0.631507964749857</v>
       </c>
     </row>
     <row r="240" spans="1:18">
       <c r="A240" s="1">
-        <v>5128</v>
+        <v>5317</v>
       </c>
       <c r="B240" t="s">
         <v>255</v>
@@ -18501,7 +18501,7 @@
     </row>
     <row r="241" spans="1:18">
       <c r="A241" s="1">
-        <v>11644</v>
+        <v>11625</v>
       </c>
       <c r="B241" t="s">
         <v>256</v>
@@ -18552,12 +18552,12 @@
         <v>0</v>
       </c>
       <c r="R241">
-        <v>0.629207473060214</v>
+        <v>0.629207473060211</v>
       </c>
     </row>
     <row r="242" spans="1:18">
       <c r="A242" s="1">
-        <v>4667</v>
+        <v>4343</v>
       </c>
       <c r="B242" t="s">
         <v>257</v>
@@ -18608,12 +18608,12 @@
         <v>0</v>
       </c>
       <c r="R242">
-        <v>0.627206609568653</v>
+        <v>0.627206609568651</v>
       </c>
     </row>
     <row r="243" spans="1:18">
       <c r="A243" s="1">
-        <v>12776</v>
+        <v>12854</v>
       </c>
       <c r="B243" t="s">
         <v>258</v>
@@ -18669,7 +18669,7 @@
     </row>
     <row r="244" spans="1:18">
       <c r="A244" s="1">
-        <v>12948</v>
+        <v>13026</v>
       </c>
       <c r="B244" t="s">
         <v>259</v>
@@ -18725,7 +18725,7 @@
     </row>
     <row r="245" spans="1:18">
       <c r="A245" s="1">
-        <v>12964</v>
+        <v>13042</v>
       </c>
       <c r="B245" t="s">
         <v>260</v>
@@ -18781,7 +18781,7 @@
     </row>
     <row r="246" spans="1:18">
       <c r="A246" s="1">
-        <v>11448</v>
+        <v>11429</v>
       </c>
       <c r="B246" t="s">
         <v>261</v>
@@ -18832,12 +18832,12 @@
         <v>0</v>
       </c>
       <c r="R246">
-        <v>0.624088900495222</v>
+        <v>0.624088900495221</v>
       </c>
     </row>
     <row r="247" spans="1:18">
       <c r="A247" s="1">
-        <v>11399</v>
+        <v>11380</v>
       </c>
       <c r="B247" t="s">
         <v>262</v>
@@ -18879,7 +18879,7 @@
         <v>1</v>
       </c>
       <c r="O247">
-        <v>3.0863263237795</v>
+        <v>3.08632632377951</v>
       </c>
       <c r="P247" t="b">
         <v>0</v>
@@ -18888,12 +18888,12 @@
         <v>0</v>
       </c>
       <c r="R247">
-        <v>0.62149408442414</v>
+        <v>0.621494084424142</v>
       </c>
     </row>
     <row r="248" spans="1:18">
       <c r="A248" s="1">
-        <v>5158</v>
+        <v>5320</v>
       </c>
       <c r="B248" t="s">
         <v>263</v>
@@ -18944,12 +18944,12 @@
         <v>0</v>
       </c>
       <c r="R248">
-        <v>0.621352105206214</v>
+        <v>0.621352105206215</v>
       </c>
     </row>
     <row r="249" spans="1:18">
       <c r="A249" s="1">
-        <v>11426</v>
+        <v>11407</v>
       </c>
       <c r="B249" t="s">
         <v>264</v>
@@ -19000,12 +19000,12 @@
         <v>0</v>
       </c>
       <c r="R249">
-        <v>0.619631960947986</v>
+        <v>0.619631960947984</v>
       </c>
     </row>
     <row r="250" spans="1:18">
       <c r="A250" s="1">
-        <v>4653</v>
+        <v>4329</v>
       </c>
       <c r="B250" t="s">
         <v>265</v>
@@ -19047,7 +19047,7 @@
         <v>1</v>
       </c>
       <c r="O250">
-        <v>3.00775601864702</v>
+        <v>3.00775601864703</v>
       </c>
       <c r="P250" t="b">
         <v>0</v>
@@ -19056,12 +19056,12 @@
         <v>0</v>
       </c>
       <c r="R250">
-        <v>0.60956910410174</v>
+        <v>0.609569104101738</v>
       </c>
     </row>
     <row r="251" spans="1:18">
       <c r="A251" s="1">
-        <v>4378</v>
+        <v>4054</v>
       </c>
       <c r="B251" t="s">
         <v>266</v>
@@ -19103,7 +19103,7 @@
         <v>1</v>
       </c>
       <c r="O251">
-        <v>2.99110265994069</v>
+        <v>2.9911026599407</v>
       </c>
       <c r="P251" t="b">
         <v>0</v>
@@ -19112,12 +19112,12 @@
         <v>0</v>
       </c>
       <c r="R251">
-        <v>0.607000993680085</v>
+        <v>0.607000993680086</v>
       </c>
     </row>
     <row r="252" spans="1:18">
       <c r="A252" s="1">
-        <v>5159</v>
+        <v>5321</v>
       </c>
       <c r="B252" t="s">
         <v>267</v>
@@ -19173,7 +19173,7 @@
     </row>
     <row r="253" spans="1:18">
       <c r="A253" s="1">
-        <v>11449</v>
+        <v>11430</v>
       </c>
       <c r="B253" t="s">
         <v>268</v>
@@ -19229,7 +19229,7 @@
     </row>
     <row r="254" spans="1:18">
       <c r="A254" s="1">
-        <v>4497</v>
+        <v>4173</v>
       </c>
       <c r="B254" t="s">
         <v>269</v>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="255" spans="1:18">
       <c r="A255" s="1">
-        <v>5062</v>
+        <v>5278</v>
       </c>
       <c r="B255" t="s">
         <v>270</v>
@@ -19341,7 +19341,7 @@
     </row>
     <row r="256" spans="1:18">
       <c r="A256" s="1">
-        <v>5126</v>
+        <v>5315</v>
       </c>
       <c r="B256" t="s">
         <v>271</v>
@@ -19397,7 +19397,7 @@
     </row>
     <row r="257" spans="1:18">
       <c r="A257" s="1">
-        <v>11673</v>
+        <v>11654</v>
       </c>
       <c r="B257" t="s">
         <v>272</v>
@@ -19453,7 +19453,7 @@
     </row>
     <row r="258" spans="1:18">
       <c r="A258" s="1">
-        <v>4708</v>
+        <v>4384</v>
       </c>
       <c r="B258" t="s">
         <v>273</v>
@@ -19509,7 +19509,7 @@
     </row>
     <row r="259" spans="1:18">
       <c r="A259" s="1">
-        <v>13030</v>
+        <v>13108</v>
       </c>
       <c r="B259" t="s">
         <v>274</v>
@@ -19560,12 +19560,12 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <v>0.595829424238315</v>
+        <v>0.595829424238316</v>
       </c>
     </row>
     <row r="260" spans="1:18">
       <c r="A260" s="1">
-        <v>11537</v>
+        <v>11518</v>
       </c>
       <c r="B260" t="s">
         <v>275</v>
@@ -19621,7 +19621,7 @@
     </row>
     <row r="261" spans="1:18">
       <c r="A261" s="1">
-        <v>4320</v>
+        <v>3996</v>
       </c>
       <c r="B261" t="s">
         <v>276</v>
@@ -19672,12 +19672,12 @@
         <v>0</v>
       </c>
       <c r="R261">
-        <v>0.590707334740296</v>
+        <v>0.590707334740297</v>
       </c>
     </row>
     <row r="262" spans="1:18">
       <c r="A262" s="1">
-        <v>4716</v>
+        <v>4392</v>
       </c>
       <c r="B262" t="s">
         <v>277</v>
@@ -19719,7 +19719,7 @@
         <v>1</v>
       </c>
       <c r="O262">
-        <v>2.87033517532565</v>
+        <v>2.87033517532564</v>
       </c>
       <c r="P262" t="b">
         <v>0</v>
@@ -19728,12 +19728,12 @@
         <v>0</v>
       </c>
       <c r="R262">
-        <v>0.587948013761414</v>
+        <v>0.587948013761413</v>
       </c>
     </row>
     <row r="263" spans="1:18">
       <c r="A263" s="1">
-        <v>4889</v>
+        <v>5186</v>
       </c>
       <c r="B263" t="s">
         <v>278</v>
@@ -19789,7 +19789,7 @@
     </row>
     <row r="264" spans="1:18">
       <c r="A264" s="1">
-        <v>4733</v>
+        <v>5057</v>
       </c>
       <c r="B264" t="s">
         <v>279</v>
@@ -19845,7 +19845,7 @@
     </row>
     <row r="265" spans="1:18">
       <c r="A265" s="1">
-        <v>11525</v>
+        <v>11506</v>
       </c>
       <c r="B265" t="s">
         <v>280</v>
@@ -19887,7 +19887,7 @@
         <v>1</v>
       </c>
       <c r="O265">
-        <v>2.84384045362459</v>
+        <v>2.8438404536246</v>
       </c>
       <c r="P265" t="b">
         <v>0</v>
@@ -19896,12 +19896,12 @@
         <v>0</v>
       </c>
       <c r="R265">
-        <v>0.583666246572176</v>
+        <v>0.583666246572177</v>
       </c>
     </row>
     <row r="266" spans="1:18">
       <c r="A266" s="1">
-        <v>12890</v>
+        <v>12968</v>
       </c>
       <c r="B266" t="s">
         <v>281</v>
@@ -19957,7 +19957,7 @@
     </row>
     <row r="267" spans="1:18">
       <c r="A267" s="1">
-        <v>12905</v>
+        <v>12983</v>
       </c>
       <c r="B267" t="s">
         <v>282</v>
@@ -20013,7 +20013,7 @@
     </row>
     <row r="268" spans="1:18">
       <c r="A268" s="1">
-        <v>5069</v>
+        <v>5285</v>
       </c>
       <c r="B268" t="s">
         <v>283</v>
@@ -20064,12 +20064,12 @@
         <v>0</v>
       </c>
       <c r="R268">
-        <v>0.579605706559512</v>
+        <v>0.579605706559513</v>
       </c>
     </row>
     <row r="269" spans="1:18">
       <c r="A269" s="1">
-        <v>4966</v>
+        <v>5236</v>
       </c>
       <c r="B269" t="s">
         <v>284</v>
@@ -20111,7 +20111,7 @@
         <v>1</v>
       </c>
       <c r="O269">
-        <v>2.81631820875787</v>
+        <v>2.81631820875786</v>
       </c>
       <c r="P269" t="b">
         <v>0</v>
@@ -20120,12 +20120,12 @@
         <v>0</v>
       </c>
       <c r="R269">
-        <v>0.579179310480118</v>
+        <v>0.579179310480117</v>
       </c>
     </row>
     <row r="270" spans="1:18">
       <c r="A270" s="1">
-        <v>11548</v>
+        <v>11529</v>
       </c>
       <c r="B270" t="s">
         <v>285</v>
@@ -20181,7 +20181,7 @@
     </row>
     <row r="271" spans="1:18">
       <c r="A271" s="1">
-        <v>11458</v>
+        <v>11439</v>
       </c>
       <c r="B271" t="s">
         <v>286</v>
@@ -20232,12 +20232,12 @@
         <v>0</v>
       </c>
       <c r="R271">
-        <v>0.578496946954645</v>
+        <v>0.578496946954644</v>
       </c>
     </row>
     <row r="272" spans="1:18">
       <c r="A272" s="1">
-        <v>11414</v>
+        <v>11395</v>
       </c>
       <c r="B272" t="s">
         <v>287</v>
@@ -20293,7 +20293,7 @@
     </row>
     <row r="273" spans="1:18">
       <c r="A273" s="1">
-        <v>11402</v>
+        <v>11383</v>
       </c>
       <c r="B273" t="s">
         <v>288</v>
@@ -20349,7 +20349,7 @@
     </row>
     <row r="274" spans="1:18">
       <c r="A274" s="1">
-        <v>4335</v>
+        <v>4011</v>
       </c>
       <c r="B274" t="s">
         <v>289</v>
@@ -20391,7 +20391,7 @@
         <v>1</v>
       </c>
       <c r="O274">
-        <v>2.79853738308048</v>
+        <v>2.79853738308049</v>
       </c>
       <c r="P274" t="b">
         <v>0</v>
@@ -20400,12 +20400,12 @@
         <v>0</v>
       </c>
       <c r="R274">
-        <v>0.576259253557266</v>
+        <v>0.576259253557268</v>
       </c>
     </row>
     <row r="275" spans="1:18">
       <c r="A275" s="1">
-        <v>4619</v>
+        <v>4943</v>
       </c>
       <c r="B275" t="s">
         <v>290</v>
@@ -20456,12 +20456,12 @@
         <v>0</v>
       </c>
       <c r="R275">
-        <v>0.574144730865226</v>
+        <v>0.574144730865227</v>
       </c>
     </row>
     <row r="276" spans="1:18">
       <c r="A276" s="1">
-        <v>12721</v>
+        <v>12799</v>
       </c>
       <c r="B276" t="s">
         <v>291</v>
@@ -20512,12 +20512,12 @@
         <v>0</v>
       </c>
       <c r="R276">
-        <v>0.565511043567355</v>
+        <v>0.565511043567356</v>
       </c>
     </row>
     <row r="277" spans="1:18">
       <c r="A277" s="1">
-        <v>12971</v>
+        <v>13049</v>
       </c>
       <c r="B277" t="s">
         <v>292</v>
@@ -20573,7 +20573,7 @@
     </row>
     <row r="278" spans="1:18">
       <c r="A278" s="1">
-        <v>11654</v>
+        <v>11635</v>
       </c>
       <c r="B278" t="s">
         <v>293</v>
@@ -20624,12 +20624,12 @@
         <v>0</v>
       </c>
       <c r="R278">
-        <v>0.557140173847753</v>
+        <v>0.557140173847754</v>
       </c>
     </row>
     <row r="279" spans="1:18">
       <c r="A279" s="1">
-        <v>5074</v>
+        <v>5290</v>
       </c>
       <c r="B279" t="s">
         <v>294</v>
@@ -20671,7 +20671,7 @@
         <v>1</v>
       </c>
       <c r="O279">
-        <v>2.67435171272703</v>
+        <v>2.67435171272702</v>
       </c>
       <c r="P279" t="b">
         <v>0</v>
@@ -20680,12 +20680,12 @@
         <v>0</v>
       </c>
       <c r="R279">
-        <v>0.555396436680238</v>
+        <v>0.555396436680237</v>
       </c>
     </row>
     <row r="280" spans="1:18">
       <c r="A280" s="1">
-        <v>4630</v>
+        <v>4954</v>
       </c>
       <c r="B280" t="s">
         <v>295</v>
@@ -20736,12 +20736,12 @@
         <v>0</v>
       </c>
       <c r="R280">
-        <v>0.55309454078161</v>
+        <v>0.553094540781611</v>
       </c>
     </row>
     <row r="281" spans="1:18">
       <c r="A281" s="1">
-        <v>4689</v>
+        <v>5013</v>
       </c>
       <c r="B281" t="s">
         <v>296</v>
@@ -20797,7 +20797,7 @@
     </row>
     <row r="282" spans="1:18">
       <c r="A282" s="1">
-        <v>12851</v>
+        <v>12929</v>
       </c>
       <c r="B282" t="s">
         <v>297</v>
@@ -20853,7 +20853,7 @@
     </row>
     <row r="283" spans="1:18">
       <c r="A283" s="1">
-        <v>11450</v>
+        <v>11431</v>
       </c>
       <c r="B283" t="s">
         <v>298</v>
@@ -20904,12 +20904,12 @@
         <v>0</v>
       </c>
       <c r="R283">
-        <v>0.549756029922747</v>
+        <v>0.549756029922746</v>
       </c>
     </row>
     <row r="284" spans="1:18">
       <c r="A284" s="1">
-        <v>4597</v>
+        <v>4273</v>
       </c>
       <c r="B284" t="s">
         <v>299</v>
@@ -20965,7 +20965,7 @@
     </row>
     <row r="285" spans="1:18">
       <c r="A285" s="1">
-        <v>12938</v>
+        <v>13016</v>
       </c>
       <c r="B285" t="s">
         <v>300</v>
@@ -21021,7 +21021,7 @@
     </row>
     <row r="286" spans="1:18">
       <c r="A286" s="1">
-        <v>4960</v>
+        <v>5230</v>
       </c>
       <c r="B286" t="s">
         <v>301</v>
@@ -21072,12 +21072,12 @@
         <v>0</v>
       </c>
       <c r="R286">
-        <v>0.533779284652164</v>
+        <v>0.533779284652163</v>
       </c>
     </row>
     <row r="287" spans="1:18">
       <c r="A287" s="1">
-        <v>4719</v>
+        <v>4395</v>
       </c>
       <c r="B287" t="s">
         <v>302</v>
@@ -21133,7 +21133,7 @@
     </row>
     <row r="288" spans="1:18">
       <c r="A288" s="1">
-        <v>12778</v>
+        <v>12856</v>
       </c>
       <c r="B288" t="s">
         <v>303</v>
@@ -21175,7 +21175,7 @@
         <v>1</v>
       </c>
       <c r="O288">
-        <v>2.5439301726639</v>
+        <v>2.54393017266389</v>
       </c>
       <c r="P288" t="b">
         <v>0</v>
@@ -21184,12 +21184,12 @@
         <v>0</v>
       </c>
       <c r="R288">
-        <v>0.532595795783049</v>
+        <v>0.532595795783048</v>
       </c>
     </row>
     <row r="289" spans="1:18">
       <c r="A289" s="1">
-        <v>11455</v>
+        <v>11436</v>
       </c>
       <c r="B289" t="s">
         <v>304</v>
@@ -21231,7 +21231,7 @@
         <v>1</v>
       </c>
       <c r="O289">
-        <v>2.53694858685907</v>
+        <v>2.53694858685906</v>
       </c>
       <c r="P289" t="b">
         <v>0</v>
@@ -21240,12 +21240,12 @@
         <v>0</v>
       </c>
       <c r="R289">
-        <v>0.531349362106269</v>
+        <v>0.531349362106268</v>
       </c>
     </row>
     <row r="290" spans="1:18">
       <c r="A290" s="1">
-        <v>4755</v>
+        <v>4431</v>
       </c>
       <c r="B290" t="s">
         <v>305</v>
@@ -21287,7 +21287,7 @@
         <v>1</v>
       </c>
       <c r="O290">
-        <v>2.53262163221935</v>
+        <v>2.53262163221934</v>
       </c>
       <c r="P290" t="b">
         <v>0</v>
@@ -21296,12 +21296,12 @@
         <v>0</v>
       </c>
       <c r="R290">
-        <v>0.530575539534456</v>
+        <v>0.530575539534455</v>
       </c>
     </row>
     <row r="291" spans="1:18">
       <c r="A291" s="1">
-        <v>4541</v>
+        <v>4217</v>
       </c>
       <c r="B291" t="s">
         <v>306</v>
@@ -21352,12 +21352,12 @@
         <v>0</v>
       </c>
       <c r="R291">
-        <v>0.520523465898468</v>
+        <v>0.520523465898467</v>
       </c>
     </row>
     <row r="292" spans="1:18">
       <c r="A292" s="1">
-        <v>4665</v>
+        <v>4341</v>
       </c>
       <c r="B292" t="s">
         <v>307</v>
@@ -21408,12 +21408,12 @@
         <v>0</v>
       </c>
       <c r="R292">
-        <v>0.519437169438322</v>
+        <v>0.519437169438321</v>
       </c>
     </row>
     <row r="293" spans="1:18">
       <c r="A293" s="1">
-        <v>4914</v>
+        <v>4590</v>
       </c>
       <c r="B293" t="s">
         <v>308</v>
@@ -21455,7 +21455,7 @@
         <v>1</v>
       </c>
       <c r="O293">
-        <v>2.46632074006006</v>
+        <v>2.46632074006005</v>
       </c>
       <c r="P293" t="b">
         <v>1</v>
@@ -21469,7 +21469,7 @@
     </row>
     <row r="294" spans="1:18">
       <c r="A294" s="1">
-        <v>4581</v>
+        <v>4905</v>
       </c>
       <c r="B294" t="s">
         <v>309</v>
@@ -21511,7 +21511,7 @@
         <v>1</v>
       </c>
       <c r="O294">
-        <v>2.4654285622888</v>
+        <v>2.46542856228879</v>
       </c>
       <c r="P294" t="b">
         <v>0</v>
@@ -21520,12 +21520,12 @@
         <v>0</v>
       </c>
       <c r="R294">
-        <v>0.518428672970374</v>
+        <v>0.518428672970373</v>
       </c>
     </row>
     <row r="295" spans="1:18">
       <c r="A295" s="1">
-        <v>11442</v>
+        <v>11423</v>
       </c>
       <c r="B295" t="s">
         <v>310</v>
@@ -21576,12 +21576,12 @@
         <v>0</v>
       </c>
       <c r="R295">
-        <v>0.516973379712385</v>
+        <v>0.516973379712384</v>
       </c>
     </row>
     <row r="296" spans="1:18">
       <c r="A296" s="1">
-        <v>12817</v>
+        <v>12895</v>
       </c>
       <c r="B296" t="s">
         <v>311</v>
@@ -21632,12 +21632,12 @@
         <v>0</v>
       </c>
       <c r="R296">
-        <v>0.515990311230512</v>
+        <v>0.515990311230511</v>
       </c>
     </row>
     <row r="297" spans="1:18">
       <c r="A297" s="1">
-        <v>4803</v>
+        <v>5127</v>
       </c>
       <c r="B297" t="s">
         <v>312</v>
@@ -21693,7 +21693,7 @@
     </row>
     <row r="298" spans="1:18">
       <c r="A298" s="1">
-        <v>4777</v>
+        <v>4453</v>
       </c>
       <c r="B298" t="s">
         <v>313</v>
@@ -21744,12 +21744,12 @@
         <v>0</v>
       </c>
       <c r="R298">
-        <v>0.514778929714806</v>
+        <v>0.514778929714805</v>
       </c>
     </row>
     <row r="299" spans="1:18">
       <c r="A299" s="1">
-        <v>4851</v>
+        <v>5175</v>
       </c>
       <c r="B299" t="s">
         <v>314</v>
@@ -21791,7 +21791,7 @@
         <v>1</v>
       </c>
       <c r="O299">
-        <v>2.43496543172237</v>
+        <v>2.43496543172236</v>
       </c>
       <c r="P299" t="b">
         <v>0</v>
@@ -21805,7 +21805,7 @@
     </row>
     <row r="300" spans="1:18">
       <c r="A300" s="1">
-        <v>4381</v>
+        <v>4057</v>
       </c>
       <c r="B300" t="s">
         <v>315</v>
@@ -21856,12 +21856,12 @@
         <v>0</v>
       </c>
       <c r="R300">
-        <v>0.508395056501908</v>
+        <v>0.508395056501909</v>
       </c>
     </row>
     <row r="301" spans="1:18">
       <c r="A301" s="1">
-        <v>4747</v>
+        <v>5071</v>
       </c>
       <c r="B301" t="s">
         <v>316</v>
@@ -21917,7 +21917,7 @@
     </row>
     <row r="302" spans="1:18">
       <c r="A302" s="1">
-        <v>12806</v>
+        <v>12884</v>
       </c>
       <c r="B302" t="s">
         <v>317</v>
@@ -21973,7 +21973,7 @@
     </row>
     <row r="303" spans="1:18">
       <c r="A303" s="1">
-        <v>4389</v>
+        <v>4065</v>
       </c>
       <c r="B303" t="s">
         <v>318</v>
@@ -22029,7 +22029,7 @@
     </row>
     <row r="304" spans="1:18">
       <c r="A304" s="1">
-        <v>12897</v>
+        <v>12975</v>
       </c>
       <c r="B304" t="s">
         <v>319</v>
@@ -22085,7 +22085,7 @@
     </row>
     <row r="305" spans="1:18">
       <c r="A305" s="1">
-        <v>11361</v>
+        <v>11342</v>
       </c>
       <c r="B305" t="s">
         <v>320</v>
@@ -22141,7 +22141,7 @@
     </row>
     <row r="306" spans="1:18">
       <c r="A306" s="1">
-        <v>4725</v>
+        <v>5049</v>
       </c>
       <c r="B306" t="s">
         <v>321</v>
@@ -22183,7 +22183,7 @@
         <v>1</v>
       </c>
       <c r="O306">
-        <v>2.36379405522577</v>
+        <v>2.36379405522576</v>
       </c>
       <c r="P306" t="b">
         <v>0</v>
@@ -22192,12 +22192,12 @@
         <v>0</v>
       </c>
       <c r="R306">
-        <v>0.499590070275516</v>
+        <v>0.499590070275515</v>
       </c>
     </row>
     <row r="307" spans="1:18">
       <c r="A307" s="1">
-        <v>12975</v>
+        <v>13053</v>
       </c>
       <c r="B307" t="s">
         <v>322</v>
@@ -22239,7 +22239,7 @@
         <v>1</v>
       </c>
       <c r="O307">
-        <v>2.34278629669712</v>
+        <v>2.34278629669711</v>
       </c>
       <c r="P307" t="b">
         <v>0</v>
@@ -22248,12 +22248,12 @@
         <v>0</v>
       </c>
       <c r="R307">
-        <v>0.495626222262179</v>
+        <v>0.495626222262178</v>
       </c>
     </row>
     <row r="308" spans="1:18">
       <c r="A308" s="1">
-        <v>5057</v>
+        <v>5273</v>
       </c>
       <c r="B308" t="s">
         <v>323</v>
@@ -22309,7 +22309,7 @@
     </row>
     <row r="309" spans="1:18">
       <c r="A309" s="1">
-        <v>4873</v>
+        <v>4549</v>
       </c>
       <c r="B309" t="s">
         <v>324</v>
@@ -22351,7 +22351,7 @@
         <v>1</v>
       </c>
       <c r="O309">
-        <v>2.30733353519651</v>
+        <v>2.3073335351965</v>
       </c>
       <c r="P309" t="b">
         <v>0</v>
@@ -22365,7 +22365,7 @@
     </row>
     <row r="310" spans="1:18">
       <c r="A310" s="1">
-        <v>11606</v>
+        <v>11587</v>
       </c>
       <c r="B310" t="s">
         <v>325</v>
@@ -22407,7 +22407,7 @@
         <v>1</v>
       </c>
       <c r="O310">
-        <v>2.30555674201369</v>
+        <v>2.30555674201368</v>
       </c>
       <c r="P310" t="b">
         <v>0</v>
@@ -22416,12 +22416,12 @@
         <v>0</v>
       </c>
       <c r="R310">
-        <v>0.488542781348871</v>
+        <v>0.48854278134887</v>
       </c>
     </row>
     <row r="311" spans="1:18">
       <c r="A311" s="1">
-        <v>5106</v>
+        <v>5295</v>
       </c>
       <c r="B311" t="s">
         <v>326</v>
@@ -22477,7 +22477,7 @@
     </row>
     <row r="312" spans="1:18">
       <c r="A312" s="1">
-        <v>4704</v>
+        <v>4380</v>
       </c>
       <c r="B312" t="s">
         <v>327</v>
@@ -22519,7 +22519,7 @@
         <v>1</v>
       </c>
       <c r="O312">
-        <v>2.25589409028466</v>
+        <v>2.25589409028467</v>
       </c>
       <c r="P312" t="b">
         <v>0</v>
@@ -22528,12 +22528,12 @@
         <v>0</v>
       </c>
       <c r="R312">
-        <v>0.478976955534575</v>
+        <v>0.478976955534577</v>
       </c>
     </row>
     <row r="313" spans="1:18">
       <c r="A313" s="1">
-        <v>4344</v>
+        <v>4020</v>
       </c>
       <c r="B313" t="s">
         <v>328</v>
@@ -22589,7 +22589,7 @@
     </row>
     <row r="314" spans="1:18">
       <c r="A314" s="1">
-        <v>4387</v>
+        <v>4063</v>
       </c>
       <c r="B314" t="s">
         <v>329</v>
@@ -22645,7 +22645,7 @@
     </row>
     <row r="315" spans="1:18">
       <c r="A315" s="1">
-        <v>4798</v>
+        <v>5122</v>
       </c>
       <c r="B315" t="s">
         <v>330</v>
@@ -22687,7 +22687,7 @@
         <v>1</v>
       </c>
       <c r="O315">
-        <v>2.2406252021737</v>
+        <v>2.24062520217369</v>
       </c>
       <c r="P315" t="b">
         <v>0</v>
@@ -22701,7 +22701,7 @@
     </row>
     <row r="316" spans="1:18">
       <c r="A316" s="1">
-        <v>4793</v>
+        <v>5117</v>
       </c>
       <c r="B316" t="s">
         <v>331</v>
@@ -22757,7 +22757,7 @@
     </row>
     <row r="317" spans="1:18">
       <c r="A317" s="1">
-        <v>4768</v>
+        <v>4444</v>
       </c>
       <c r="B317" t="s">
         <v>332</v>
@@ -22813,7 +22813,7 @@
     </row>
     <row r="318" spans="1:18">
       <c r="A318" s="1">
-        <v>12869</v>
+        <v>12947</v>
       </c>
       <c r="B318" t="s">
         <v>333</v>
@@ -22864,12 +22864,12 @@
         <v>0</v>
       </c>
       <c r="R318">
-        <v>0.460449116202326</v>
+        <v>0.460449116202327</v>
       </c>
     </row>
     <row r="319" spans="1:18">
       <c r="A319" s="1">
-        <v>4871</v>
+        <v>4547</v>
       </c>
       <c r="B319" t="s">
         <v>334</v>
@@ -22920,12 +22920,12 @@
         <v>0</v>
       </c>
       <c r="R319">
-        <v>0.456438732592018</v>
+        <v>0.456438732592017</v>
       </c>
     </row>
     <row r="320" spans="1:18">
       <c r="A320" s="1">
-        <v>4548</v>
+        <v>4224</v>
       </c>
       <c r="B320" t="s">
         <v>335</v>
@@ -22976,12 +22976,12 @@
         <v>0</v>
       </c>
       <c r="R320">
-        <v>0.453206326822684</v>
+        <v>0.453206326822683</v>
       </c>
     </row>
     <row r="321" spans="1:18">
       <c r="A321" s="1">
-        <v>12715</v>
+        <v>12793</v>
       </c>
       <c r="B321" t="s">
         <v>336</v>
@@ -23037,7 +23037,7 @@
     </row>
     <row r="322" spans="1:18">
       <c r="A322" s="1">
-        <v>13034</v>
+        <v>13112</v>
       </c>
       <c r="B322" t="s">
         <v>337</v>
@@ -23093,7 +23093,7 @@
     </row>
     <row r="323" spans="1:18">
       <c r="A323" s="1">
-        <v>11585</v>
+        <v>11566</v>
       </c>
       <c r="B323" t="s">
         <v>338</v>
@@ -23144,12 +23144,12 @@
         <v>0</v>
       </c>
       <c r="R323">
-        <v>0.447297190390452</v>
+        <v>0.447297190390451</v>
       </c>
     </row>
     <row r="324" spans="1:18">
       <c r="A324" s="1">
-        <v>4827</v>
+        <v>4503</v>
       </c>
       <c r="B324" t="s">
         <v>339</v>
@@ -23200,12 +23200,12 @@
         <v>0</v>
       </c>
       <c r="R324">
-        <v>0.4472731067027</v>
+        <v>0.447273106702701</v>
       </c>
     </row>
     <row r="325" spans="1:18">
       <c r="A325" s="1">
-        <v>12942</v>
+        <v>13020</v>
       </c>
       <c r="B325" t="s">
         <v>340</v>
@@ -23256,12 +23256,12 @@
         <v>0</v>
       </c>
       <c r="R325">
-        <v>0.442202407415671</v>
+        <v>0.44220240741567</v>
       </c>
     </row>
     <row r="326" spans="1:18">
       <c r="A326" s="1">
-        <v>13026</v>
+        <v>13104</v>
       </c>
       <c r="B326" t="s">
         <v>341</v>
@@ -23303,7 +23303,7 @@
         <v>1</v>
       </c>
       <c r="O326">
-        <v>2.07005792059336</v>
+        <v>2.07005792059335</v>
       </c>
       <c r="P326" t="b">
         <v>0</v>
@@ -23317,7 +23317,7 @@
     </row>
     <row r="327" spans="1:18">
       <c r="A327" s="1">
-        <v>11695</v>
+        <v>11676</v>
       </c>
       <c r="B327" t="s">
         <v>342</v>
@@ -23368,12 +23368,12 @@
         <v>0</v>
       </c>
       <c r="R327">
-        <v>0.435771774374983</v>
+        <v>0.435771774374982</v>
       </c>
     </row>
     <row r="328" spans="1:18">
       <c r="A328" s="1">
-        <v>5228</v>
+        <v>5363</v>
       </c>
       <c r="B328" t="s">
         <v>343</v>
@@ -23429,7 +23429,7 @@
     </row>
     <row r="329" spans="1:18">
       <c r="A329" s="1">
-        <v>11447</v>
+        <v>11428</v>
       </c>
       <c r="B329" t="s">
         <v>344</v>
@@ -23485,7 +23485,7 @@
     </row>
     <row r="330" spans="1:18">
       <c r="A330" s="1">
-        <v>4897</v>
+        <v>5194</v>
       </c>
       <c r="B330" t="s">
         <v>345</v>
@@ -23541,7 +23541,7 @@
     </row>
     <row r="331" spans="1:18">
       <c r="A331" s="1">
-        <v>12717</v>
+        <v>12795</v>
       </c>
       <c r="B331" t="s">
         <v>346</v>
@@ -23597,7 +23597,7 @@
     </row>
     <row r="332" spans="1:18">
       <c r="A332" s="1">
-        <v>4709</v>
+        <v>4385</v>
       </c>
       <c r="B332" t="s">
         <v>347</v>
@@ -23653,7 +23653,7 @@
     </row>
     <row r="333" spans="1:18">
       <c r="A333" s="1">
-        <v>12963</v>
+        <v>13041</v>
       </c>
       <c r="B333" t="s">
         <v>348</v>
@@ -23709,7 +23709,7 @@
     </row>
     <row r="334" spans="1:18">
       <c r="A334" s="1">
-        <v>11482</v>
+        <v>11463</v>
       </c>
       <c r="B334" t="s">
         <v>349</v>
@@ -23765,7 +23765,7 @@
     </row>
     <row r="335" spans="1:18">
       <c r="A335" s="1">
-        <v>13028</v>
+        <v>13106</v>
       </c>
       <c r="B335" t="s">
         <v>350</v>
@@ -23821,7 +23821,7 @@
     </row>
     <row r="336" spans="1:18">
       <c r="A336" s="1">
-        <v>5332</v>
+        <v>5413</v>
       </c>
       <c r="B336" t="s">
         <v>351</v>
@@ -23872,12 +23872,12 @@
         <v>0</v>
       </c>
       <c r="R336">
-        <v>0.41087856548903</v>
+        <v>0.410878565489029</v>
       </c>
     </row>
     <row r="337" spans="1:18">
       <c r="A337" s="1">
-        <v>13021</v>
+        <v>13099</v>
       </c>
       <c r="B337" t="s">
         <v>352</v>
@@ -23928,12 +23928,12 @@
         <v>0</v>
       </c>
       <c r="R337">
-        <v>0.409452492132526</v>
+        <v>0.409452492132527</v>
       </c>
     </row>
     <row r="338" spans="1:18">
       <c r="A338" s="1">
-        <v>12873</v>
+        <v>12951</v>
       </c>
       <c r="B338" t="s">
         <v>353</v>
@@ -23984,12 +23984,12 @@
         <v>0</v>
       </c>
       <c r="R338">
-        <v>0.404016910991118</v>
+        <v>0.404016910991117</v>
       </c>
     </row>
     <row r="339" spans="1:18">
       <c r="A339" s="1">
-        <v>11541</v>
+        <v>11522</v>
       </c>
       <c r="B339" t="s">
         <v>354</v>
@@ -24045,7 +24045,7 @@
     </row>
     <row r="340" spans="1:18">
       <c r="A340" s="1">
-        <v>4802</v>
+        <v>5126</v>
       </c>
       <c r="B340" t="s">
         <v>355</v>
@@ -24101,7 +24101,7 @@
     </row>
     <row r="341" spans="1:18">
       <c r="A341" s="1">
-        <v>4491</v>
+        <v>4167</v>
       </c>
       <c r="B341" t="s">
         <v>356</v>
@@ -24157,7 +24157,7 @@
     </row>
     <row r="342" spans="1:18">
       <c r="A342" s="1">
-        <v>12984</v>
+        <v>13062</v>
       </c>
       <c r="B342" t="s">
         <v>357</v>
@@ -24213,7 +24213,7 @@
     </row>
     <row r="343" spans="1:18">
       <c r="A343" s="1">
-        <v>13082</v>
+        <v>13160</v>
       </c>
       <c r="B343" t="s">
         <v>358</v>
@@ -24269,7 +24269,7 @@
     </row>
     <row r="344" spans="1:18">
       <c r="A344" s="1">
-        <v>4948</v>
+        <v>5218</v>
       </c>
       <c r="B344" t="s">
         <v>359</v>
@@ -24325,7 +24325,7 @@
     </row>
     <row r="345" spans="1:18">
       <c r="A345" s="1">
-        <v>4536</v>
+        <v>4212</v>
       </c>
       <c r="B345" t="s">
         <v>360</v>
@@ -24381,7 +24381,7 @@
     </row>
     <row r="346" spans="1:18">
       <c r="A346" s="1">
-        <v>11466</v>
+        <v>11447</v>
       </c>
       <c r="B346" t="s">
         <v>361</v>
@@ -24437,7 +24437,7 @@
     </row>
     <row r="347" spans="1:18">
       <c r="A347" s="1">
-        <v>13083</v>
+        <v>13161</v>
       </c>
       <c r="B347" t="s">
         <v>362</v>
@@ -24488,12 +24488,12 @@
         <v>0</v>
       </c>
       <c r="R347">
-        <v>0.394249080282076</v>
+        <v>0.394249080282077</v>
       </c>
     </row>
     <row r="348" spans="1:18">
       <c r="A348" s="1">
-        <v>4804</v>
+        <v>5128</v>
       </c>
       <c r="B348" t="s">
         <v>363</v>
@@ -24535,7 +24535,7 @@
         <v>1</v>
       </c>
       <c r="O348">
-        <v>1.83690109747762</v>
+        <v>1.83690109747761</v>
       </c>
       <c r="P348" t="b">
         <v>0</v>
@@ -24544,12 +24544,12 @@
         <v>0</v>
       </c>
       <c r="R348">
-        <v>0.393062045851898</v>
+        <v>0.393062045851897</v>
       </c>
     </row>
     <row r="349" spans="1:18">
       <c r="A349" s="1">
-        <v>4558</v>
+        <v>4234</v>
       </c>
       <c r="B349" t="s">
         <v>364</v>
@@ -24605,7 +24605,7 @@
     </row>
     <row r="350" spans="1:18">
       <c r="A350" s="1">
-        <v>5067</v>
+        <v>5283</v>
       </c>
       <c r="B350" t="s">
         <v>365</v>
@@ -24656,12 +24656,12 @@
         <v>0</v>
       </c>
       <c r="R350">
-        <v>0.391743252539978</v>
+        <v>0.391743252539979</v>
       </c>
     </row>
     <row r="351" spans="1:18">
       <c r="A351" s="1">
-        <v>4577</v>
+        <v>4901</v>
       </c>
       <c r="B351" t="s">
         <v>366</v>
@@ -24717,7 +24717,7 @@
     </row>
     <row r="352" spans="1:18">
       <c r="A352" s="1">
-        <v>11373</v>
+        <v>11354</v>
       </c>
       <c r="B352" t="s">
         <v>367</v>
@@ -24773,7 +24773,7 @@
     </row>
     <row r="353" spans="1:18">
       <c r="A353" s="1">
-        <v>4865</v>
+        <v>4541</v>
       </c>
       <c r="B353" t="s">
         <v>368</v>
@@ -24824,12 +24824,12 @@
         <v>0</v>
       </c>
       <c r="R353">
-        <v>0.384605620013499</v>
+        <v>0.3846056200135</v>
       </c>
     </row>
     <row r="354" spans="1:18">
       <c r="A354" s="1">
-        <v>4843</v>
+        <v>5167</v>
       </c>
       <c r="B354" t="s">
         <v>369</v>
@@ -24885,7 +24885,7 @@
     </row>
     <row r="355" spans="1:18">
       <c r="A355" s="1">
-        <v>5224</v>
+        <v>5359</v>
       </c>
       <c r="B355" t="s">
         <v>370</v>
@@ -24941,7 +24941,7 @@
     </row>
     <row r="356" spans="1:18">
       <c r="A356" s="1">
-        <v>4819</v>
+        <v>4495</v>
       </c>
       <c r="B356" t="s">
         <v>371</v>
@@ -24992,12 +24992,12 @@
         <v>0</v>
       </c>
       <c r="R356">
-        <v>0.377614023173878</v>
+        <v>0.377614023173877</v>
       </c>
     </row>
     <row r="357" spans="1:18">
       <c r="A357" s="1">
-        <v>4839</v>
+        <v>5163</v>
       </c>
       <c r="B357" t="s">
         <v>372</v>
@@ -25053,7 +25053,7 @@
     </row>
     <row r="358" spans="1:18">
       <c r="A358" s="1">
-        <v>12989</v>
+        <v>13067</v>
       </c>
       <c r="B358" t="s">
         <v>373</v>
@@ -25104,12 +25104,12 @@
         <v>0</v>
       </c>
       <c r="R358">
-        <v>0.373726744113357</v>
+        <v>0.373726744113356</v>
       </c>
     </row>
     <row r="359" spans="1:18">
       <c r="A359" s="1">
-        <v>4875</v>
+        <v>4551</v>
       </c>
       <c r="B359" t="s">
         <v>374</v>
@@ -25165,7 +25165,7 @@
     </row>
     <row r="360" spans="1:18">
       <c r="A360" s="1">
-        <v>4710</v>
+        <v>4386</v>
       </c>
       <c r="B360" t="s">
         <v>375</v>
@@ -25221,7 +25221,7 @@
     </row>
     <row r="361" spans="1:18">
       <c r="A361" s="1">
-        <v>12781</v>
+        <v>12859</v>
       </c>
       <c r="B361" t="s">
         <v>376</v>
@@ -25277,7 +25277,7 @@
     </row>
     <row r="362" spans="1:18">
       <c r="A362" s="1">
-        <v>4443</v>
+        <v>4119</v>
       </c>
       <c r="B362" t="s">
         <v>377</v>
@@ -25333,7 +25333,7 @@
     </row>
     <row r="363" spans="1:18">
       <c r="A363" s="1">
-        <v>4374</v>
+        <v>4050</v>
       </c>
       <c r="B363" t="s">
         <v>378</v>
@@ -25384,12 +25384,12 @@
         <v>0</v>
       </c>
       <c r="R363">
-        <v>0.366825236825726</v>
+        <v>0.366825236825727</v>
       </c>
     </row>
     <row r="364" spans="1:18">
       <c r="A364" s="1">
-        <v>4691</v>
+        <v>5015</v>
       </c>
       <c r="B364" t="s">
         <v>379</v>
@@ -25445,7 +25445,7 @@
     </row>
     <row r="365" spans="1:18">
       <c r="A365" s="1">
-        <v>13050</v>
+        <v>13128</v>
       </c>
       <c r="B365" t="s">
         <v>380</v>
@@ -25501,7 +25501,7 @@
     </row>
     <row r="366" spans="1:18">
       <c r="A366" s="1">
-        <v>12759</v>
+        <v>12837</v>
       </c>
       <c r="B366" t="s">
         <v>381</v>
@@ -25557,7 +25557,7 @@
     </row>
     <row r="367" spans="1:18">
       <c r="A367" s="1">
-        <v>5221</v>
+        <v>5356</v>
       </c>
       <c r="B367" t="s">
         <v>382</v>
@@ -25613,7 +25613,7 @@
     </row>
     <row r="368" spans="1:18">
       <c r="A368" s="1">
-        <v>5009</v>
+        <v>5252</v>
       </c>
       <c r="B368" t="s">
         <v>383</v>
@@ -25655,7 +25655,7 @@
         <v>1</v>
       </c>
       <c r="O368">
-        <v>1.66170789535204</v>
+        <v>1.66170789535205</v>
       </c>
       <c r="P368" t="b">
         <v>0</v>
@@ -25664,12 +25664,12 @@
         <v>0</v>
       </c>
       <c r="R368">
-        <v>0.354519712406937</v>
+        <v>0.354519712406938</v>
       </c>
     </row>
     <row r="369" spans="1:18">
       <c r="A369" s="1">
-        <v>4785</v>
+        <v>5109</v>
       </c>
       <c r="B369" t="s">
         <v>384</v>
@@ -25720,12 +25720,12 @@
         <v>0</v>
       </c>
       <c r="R369">
-        <v>0.342872042166906</v>
+        <v>0.342872042166905</v>
       </c>
     </row>
     <row r="370" spans="1:18">
       <c r="A370" s="1">
-        <v>12736</v>
+        <v>12814</v>
       </c>
       <c r="B370" t="s">
         <v>385</v>
@@ -25781,7 +25781,7 @@
     </row>
     <row r="371" spans="1:18">
       <c r="A371" s="1">
-        <v>12822</v>
+        <v>12900</v>
       </c>
       <c r="B371" t="s">
         <v>386</v>
@@ -25837,7 +25837,7 @@
     </row>
     <row r="372" spans="1:18">
       <c r="A372" s="1">
-        <v>11650</v>
+        <v>11631</v>
       </c>
       <c r="B372" t="s">
         <v>387</v>
@@ -25893,7 +25893,7 @@
     </row>
     <row r="373" spans="1:18">
       <c r="A373" s="1">
-        <v>5214</v>
+        <v>5349</v>
       </c>
       <c r="B373" t="s">
         <v>388</v>
@@ -25949,7 +25949,7 @@
     </row>
     <row r="374" spans="1:18">
       <c r="A374" s="1">
-        <v>13032</v>
+        <v>13110</v>
       </c>
       <c r="B374" t="s">
         <v>389</v>
@@ -26005,7 +26005,7 @@
     </row>
     <row r="375" spans="1:18">
       <c r="A375" s="1">
-        <v>4807</v>
+        <v>4483</v>
       </c>
       <c r="B375" t="s">
         <v>390</v>
@@ -26061,7 +26061,7 @@
     </row>
     <row r="376" spans="1:18">
       <c r="A376" s="1">
-        <v>4528</v>
+        <v>4852</v>
       </c>
       <c r="B376" t="s">
         <v>391</v>
@@ -26117,7 +26117,7 @@
     </row>
     <row r="377" spans="1:18">
       <c r="A377" s="1">
-        <v>4448</v>
+        <v>4124</v>
       </c>
       <c r="B377" t="s">
         <v>392</v>
@@ -26173,7 +26173,7 @@
     </row>
     <row r="378" spans="1:18">
       <c r="A378" s="1">
-        <v>12858</v>
+        <v>12936</v>
       </c>
       <c r="B378" t="s">
         <v>393</v>
@@ -26229,7 +26229,7 @@
     </row>
     <row r="379" spans="1:18">
       <c r="A379" s="1">
-        <v>11614</v>
+        <v>11595</v>
       </c>
       <c r="B379" t="s">
         <v>394</v>
@@ -26271,7 +26271,7 @@
         <v>1</v>
       </c>
       <c r="O379">
-        <v>1.5263910184369</v>
+        <v>1.52639101843691</v>
       </c>
       <c r="P379" t="b">
         <v>0</v>
@@ -26280,12 +26280,12 @@
         <v>0</v>
       </c>
       <c r="R379">
-        <v>0.323807171771939</v>
+        <v>0.32380717177194</v>
       </c>
     </row>
     <row r="380" spans="1:18">
       <c r="A380" s="1">
-        <v>12870</v>
+        <v>12948</v>
       </c>
       <c r="B380" t="s">
         <v>395</v>
@@ -26341,7 +26341,7 @@
     </row>
     <row r="381" spans="1:18">
       <c r="A381" s="1">
-        <v>4649</v>
+        <v>4325</v>
       </c>
       <c r="B381" t="s">
         <v>396</v>
@@ -26397,7 +26397,7 @@
     </row>
     <row r="382" spans="1:18">
       <c r="A382" s="1">
-        <v>11611</v>
+        <v>11592</v>
       </c>
       <c r="B382" t="s">
         <v>397</v>
@@ -26453,7 +26453,7 @@
     </row>
     <row r="383" spans="1:18">
       <c r="A383" s="1">
-        <v>4824</v>
+        <v>4500</v>
       </c>
       <c r="B383" t="s">
         <v>398</v>
@@ -26495,7 +26495,7 @@
         <v>1</v>
       </c>
       <c r="O383">
-        <v>1.49552965838566</v>
+        <v>1.49552965838565</v>
       </c>
       <c r="P383" t="b">
         <v>0</v>
@@ -26509,7 +26509,7 @@
     </row>
     <row r="384" spans="1:18">
       <c r="A384" s="1">
-        <v>4723</v>
+        <v>4399</v>
       </c>
       <c r="B384" t="s">
         <v>399</v>
@@ -26565,7 +26565,7 @@
     </row>
     <row r="385" spans="1:18">
       <c r="A385" s="1">
-        <v>5012</v>
+        <v>5255</v>
       </c>
       <c r="B385" t="s">
         <v>400</v>
@@ -26621,7 +26621,7 @@
     </row>
     <row r="386" spans="1:18">
       <c r="A386" s="1">
-        <v>12713</v>
+        <v>12791</v>
       </c>
       <c r="B386" t="s">
         <v>401</v>
@@ -26663,7 +26663,7 @@
         <v>1</v>
       </c>
       <c r="O386">
-        <v>1.47499391355629</v>
+        <v>1.47499391355628</v>
       </c>
       <c r="P386" t="b">
         <v>0</v>
@@ -26672,12 +26672,12 @@
         <v>0</v>
       </c>
       <c r="R386">
-        <v>0.311946369631919</v>
+        <v>0.311946369631918</v>
       </c>
     </row>
     <row r="387" spans="1:18">
       <c r="A387" s="1">
-        <v>12849</v>
+        <v>12927</v>
       </c>
       <c r="B387" t="s">
         <v>402</v>
@@ -26733,7 +26733,7 @@
     </row>
     <row r="388" spans="1:18">
       <c r="A388" s="1">
-        <v>4609</v>
+        <v>4285</v>
       </c>
       <c r="B388" t="s">
         <v>403</v>
@@ -26784,12 +26784,12 @@
         <v>0</v>
       </c>
       <c r="R388">
-        <v>0.311137387691532</v>
+        <v>0.311137387691531</v>
       </c>
     </row>
     <row r="389" spans="1:18">
       <c r="A389" s="1">
-        <v>12955</v>
+        <v>13033</v>
       </c>
       <c r="B389" t="s">
         <v>404</v>
@@ -26845,7 +26845,7 @@
     </row>
     <row r="390" spans="1:18">
       <c r="A390" s="1">
-        <v>4881</v>
+        <v>4557</v>
       </c>
       <c r="B390" t="s">
         <v>405</v>
@@ -26896,12 +26896,12 @@
         <v>0</v>
       </c>
       <c r="R390">
-        <v>0.309182128104741</v>
+        <v>0.30918212810474</v>
       </c>
     </row>
     <row r="391" spans="1:18">
       <c r="A391" s="1">
-        <v>5217</v>
+        <v>5352</v>
       </c>
       <c r="B391" t="s">
         <v>406</v>
@@ -26952,12 +26952,12 @@
         <v>0</v>
       </c>
       <c r="R391">
-        <v>0.306095945335657</v>
+        <v>0.306095945335656</v>
       </c>
     </row>
     <row r="392" spans="1:18">
       <c r="A392" s="1">
-        <v>4754</v>
+        <v>4430</v>
       </c>
       <c r="B392" t="s">
         <v>407</v>
@@ -27008,12 +27008,12 @@
         <v>0</v>
       </c>
       <c r="R392">
-        <v>0.305769047907552</v>
+        <v>0.305769047907551</v>
       </c>
     </row>
     <row r="393" spans="1:18">
       <c r="A393" s="1">
-        <v>4556</v>
+        <v>4232</v>
       </c>
       <c r="B393" t="s">
         <v>408</v>
@@ -27069,7 +27069,7 @@
     </row>
     <row r="394" spans="1:18">
       <c r="A394" s="1">
-        <v>11636</v>
+        <v>11617</v>
       </c>
       <c r="B394" t="s">
         <v>409</v>
@@ -27125,7 +27125,7 @@
     </row>
     <row r="395" spans="1:18">
       <c r="A395" s="1">
-        <v>5050</v>
+        <v>5266</v>
       </c>
       <c r="B395" t="s">
         <v>410</v>
@@ -27176,12 +27176,12 @@
         <v>0</v>
       </c>
       <c r="R395">
-        <v>0.302093431939276</v>
+        <v>0.302093431939275</v>
       </c>
     </row>
     <row r="396" spans="1:18">
       <c r="A396" s="1">
-        <v>12885</v>
+        <v>12963</v>
       </c>
       <c r="B396" t="s">
         <v>411</v>
@@ -27223,7 +27223,7 @@
         <v>1</v>
       </c>
       <c r="O396">
-        <v>1.42133388750192</v>
+        <v>1.42133388750191</v>
       </c>
       <c r="P396" t="b">
         <v>0</v>
@@ -27237,7 +27237,7 @@
     </row>
     <row r="397" spans="1:18">
       <c r="A397" s="1">
-        <v>12997</v>
+        <v>13075</v>
       </c>
       <c r="B397" t="s">
         <v>412</v>
@@ -27288,12 +27288,12 @@
         <v>0</v>
       </c>
       <c r="R397">
-        <v>0.298200817565266</v>
+        <v>0.298200817565265</v>
       </c>
     </row>
     <row r="398" spans="1:18">
       <c r="A398" s="1">
-        <v>11675</v>
+        <v>11656</v>
       </c>
       <c r="B398" t="s">
         <v>413</v>
@@ -27349,7 +27349,7 @@
     </row>
     <row r="399" spans="1:18">
       <c r="A399" s="1">
-        <v>4553</v>
+        <v>4229</v>
       </c>
       <c r="B399" t="s">
         <v>414</v>
@@ -27405,7 +27405,7 @@
     </row>
     <row r="400" spans="1:18">
       <c r="A400" s="1">
-        <v>12944</v>
+        <v>13022</v>
       </c>
       <c r="B400" t="s">
         <v>415</v>
@@ -27461,7 +27461,7 @@
     </row>
     <row r="401" spans="1:18">
       <c r="A401" s="1">
-        <v>11348</v>
+        <v>11329</v>
       </c>
       <c r="B401" t="s">
         <v>416</v>
@@ -27512,12 +27512,12 @@
         <v>0</v>
       </c>
       <c r="R401">
-        <v>0.292905095910874</v>
+        <v>0.292905095910875</v>
       </c>
     </row>
     <row r="402" spans="1:18">
       <c r="A402" s="1">
-        <v>4620</v>
+        <v>4944</v>
       </c>
       <c r="B402" t="s">
         <v>417</v>
@@ -27573,7 +27573,7 @@
     </row>
     <row r="403" spans="1:18">
       <c r="A403" s="1">
-        <v>12800</v>
+        <v>12878</v>
       </c>
       <c r="B403" t="s">
         <v>418</v>
@@ -27629,7 +27629,7 @@
     </row>
     <row r="404" spans="1:18">
       <c r="A404" s="1">
-        <v>4650</v>
+        <v>4326</v>
       </c>
       <c r="B404" t="s">
         <v>419</v>
@@ -27685,7 +27685,7 @@
     </row>
     <row r="405" spans="1:18">
       <c r="A405" s="1">
-        <v>5231</v>
+        <v>5366</v>
       </c>
       <c r="B405" t="s">
         <v>420</v>
@@ -27727,7 +27727,7 @@
         <v>1</v>
       </c>
       <c r="O405">
-        <v>1.3680287526276</v>
+        <v>1.36802875262759</v>
       </c>
       <c r="P405" t="b">
         <v>1</v>
@@ -27736,12 +27736,12 @@
         <v>0</v>
       </c>
       <c r="R405">
-        <v>0.286954220203341</v>
+        <v>0.28695422020334</v>
       </c>
     </row>
     <row r="406" spans="1:18">
       <c r="A406" s="1">
-        <v>12764</v>
+        <v>12842</v>
       </c>
       <c r="B406" t="s">
         <v>421</v>
@@ -27797,7 +27797,7 @@
     </row>
     <row r="407" spans="1:18">
       <c r="A407" s="1">
-        <v>4831</v>
+        <v>4507</v>
       </c>
       <c r="B407" t="s">
         <v>422</v>
@@ -27839,7 +27839,7 @@
         <v>1</v>
       </c>
       <c r="O407">
-        <v>1.30709308407822</v>
+        <v>1.30709308407821</v>
       </c>
       <c r="P407" t="b">
         <v>0</v>
@@ -27853,7 +27853,7 @@
     </row>
     <row r="408" spans="1:18">
       <c r="A408" s="1">
-        <v>5339</v>
+        <v>5420</v>
       </c>
       <c r="B408" t="s">
         <v>423</v>
@@ -27909,7 +27909,7 @@
     </row>
     <row r="409" spans="1:18">
       <c r="A409" s="1">
-        <v>4659</v>
+        <v>4335</v>
       </c>
       <c r="B409" t="s">
         <v>424</v>
@@ -27951,7 +27951,7 @@
         <v>1</v>
       </c>
       <c r="O409">
-        <v>1.27581290281946</v>
+        <v>1.27581290281945</v>
       </c>
       <c r="P409" t="b">
         <v>0</v>
@@ -27965,7 +27965,7 @@
     </row>
     <row r="410" spans="1:18">
       <c r="A410" s="1">
-        <v>5172</v>
+        <v>5334</v>
       </c>
       <c r="B410" t="s">
         <v>425</v>
@@ -28021,7 +28021,7 @@
     </row>
     <row r="411" spans="1:18">
       <c r="A411" s="1">
-        <v>4334</v>
+        <v>4010</v>
       </c>
       <c r="B411" t="s">
         <v>426</v>
@@ -28077,7 +28077,7 @@
     </row>
     <row r="412" spans="1:18">
       <c r="A412" s="1">
-        <v>11527</v>
+        <v>11508</v>
       </c>
       <c r="B412" t="s">
         <v>427</v>
@@ -28128,12 +28128,12 @@
         <v>0</v>
       </c>
       <c r="R412">
-        <v>0.258311455486404</v>
+        <v>0.258311455486405</v>
       </c>
     </row>
     <row r="413" spans="1:18">
       <c r="A413" s="1">
-        <v>5116</v>
+        <v>5305</v>
       </c>
       <c r="B413" t="s">
         <v>428</v>
@@ -28184,12 +28184,12 @@
         <v>0</v>
       </c>
       <c r="R413">
-        <v>0.256826213920617</v>
+        <v>0.256826213920618</v>
       </c>
     </row>
     <row r="414" spans="1:18">
       <c r="A414" s="1">
-        <v>11600</v>
+        <v>11581</v>
       </c>
       <c r="B414" t="s">
         <v>429</v>
@@ -28240,12 +28240,12 @@
         <v>0</v>
       </c>
       <c r="R414">
-        <v>0.256069857894995</v>
+        <v>0.256069857894996</v>
       </c>
     </row>
     <row r="415" spans="1:18">
       <c r="A415" s="1">
-        <v>5008</v>
+        <v>5251</v>
       </c>
       <c r="B415" t="s">
         <v>430</v>
@@ -28296,12 +28296,12 @@
         <v>0</v>
       </c>
       <c r="R415">
-        <v>0.254091265173416</v>
+        <v>0.254091265173417</v>
       </c>
     </row>
     <row r="416" spans="1:18">
       <c r="A416" s="1">
-        <v>11467</v>
+        <v>11448</v>
       </c>
       <c r="B416" t="s">
         <v>431</v>
@@ -28357,7 +28357,7 @@
     </row>
     <row r="417" spans="1:18">
       <c r="A417" s="1">
-        <v>4887</v>
+        <v>5184</v>
       </c>
       <c r="B417" t="s">
         <v>432</v>
@@ -28413,7 +28413,7 @@
     </row>
     <row r="418" spans="1:18">
       <c r="A418" s="1">
-        <v>11487</v>
+        <v>11468</v>
       </c>
       <c r="B418" t="s">
         <v>433</v>
@@ -28455,7 +28455,7 @@
         <v>1</v>
       </c>
       <c r="O418">
-        <v>1.21119676624112</v>
+        <v>1.21119676624113</v>
       </c>
       <c r="P418" t="b">
         <v>0</v>
@@ -28464,12 +28464,12 @@
         <v>0</v>
       </c>
       <c r="R418">
-        <v>0.249679863665104</v>
+        <v>0.249679863665105</v>
       </c>
     </row>
     <row r="419" spans="1:18">
       <c r="A419" s="1">
-        <v>4724</v>
+        <v>4400</v>
       </c>
       <c r="B419" t="s">
         <v>434</v>
@@ -28525,7 +28525,7 @@
     </row>
     <row r="420" spans="1:18">
       <c r="A420" s="1">
-        <v>4489</v>
+        <v>4165</v>
       </c>
       <c r="B420" t="s">
         <v>435</v>
@@ -28581,7 +28581,7 @@
     </row>
     <row r="421" spans="1:18">
       <c r="A421" s="1">
-        <v>12903</v>
+        <v>12981</v>
       </c>
       <c r="B421" t="s">
         <v>436</v>
@@ -28637,7 +28637,7 @@
     </row>
     <row r="422" spans="1:18">
       <c r="A422" s="1">
-        <v>13005</v>
+        <v>13083</v>
       </c>
       <c r="B422" t="s">
         <v>437</v>
@@ -28679,7 +28679,7 @@
         <v>1</v>
       </c>
       <c r="O422">
-        <v>1.18260382479627</v>
+        <v>1.18260382479626</v>
       </c>
       <c r="P422" t="b">
         <v>1</v>
@@ -28693,7 +28693,7 @@
     </row>
     <row r="423" spans="1:18">
       <c r="A423" s="1">
-        <v>4956</v>
+        <v>5226</v>
       </c>
       <c r="B423" t="s">
         <v>438</v>
@@ -28749,7 +28749,7 @@
     </row>
     <row r="424" spans="1:18">
       <c r="A424" s="1">
-        <v>4928</v>
+        <v>4604</v>
       </c>
       <c r="B424" t="s">
         <v>439</v>
@@ -28791,7 +28791,7 @@
         <v>1</v>
       </c>
       <c r="O424">
-        <v>1.16283495090713</v>
+        <v>1.16283495090714</v>
       </c>
       <c r="P424" t="b">
         <v>0</v>
@@ -28805,7 +28805,7 @@
     </row>
     <row r="425" spans="1:18">
       <c r="A425" s="1">
-        <v>4965</v>
+        <v>5235</v>
       </c>
       <c r="B425" t="s">
         <v>440</v>
@@ -28856,12 +28856,12 @@
         <v>0</v>
       </c>
       <c r="R425">
-        <v>0.235104720305965</v>
+        <v>0.235104720305964</v>
       </c>
     </row>
     <row r="426" spans="1:18">
       <c r="A426" s="1">
-        <v>12726</v>
+        <v>12804</v>
       </c>
       <c r="B426" t="s">
         <v>441</v>
@@ -28917,7 +28917,7 @@
     </row>
     <row r="427" spans="1:18">
       <c r="A427" s="1">
-        <v>4629</v>
+        <v>4953</v>
       </c>
       <c r="B427" t="s">
         <v>442</v>
@@ -28973,7 +28973,7 @@
     </row>
     <row r="428" spans="1:18">
       <c r="A428" s="1">
-        <v>4814</v>
+        <v>4490</v>
       </c>
       <c r="B428" t="s">
         <v>443</v>
@@ -29029,7 +29029,7 @@
     </row>
     <row r="429" spans="1:18">
       <c r="A429" s="1">
-        <v>4579</v>
+        <v>4903</v>
       </c>
       <c r="B429" t="s">
         <v>444</v>
@@ -29085,7 +29085,7 @@
     </row>
     <row r="430" spans="1:18">
       <c r="A430" s="1">
-        <v>12883</v>
+        <v>12961</v>
       </c>
       <c r="B430" t="s">
         <v>445</v>
@@ -29141,7 +29141,7 @@
     </row>
     <row r="431" spans="1:18">
       <c r="A431" s="1">
-        <v>11677</v>
+        <v>11658</v>
       </c>
       <c r="B431" t="s">
         <v>446</v>
@@ -29197,7 +29197,7 @@
     </row>
     <row r="432" spans="1:18">
       <c r="A432" s="1">
-        <v>4885</v>
+        <v>4561</v>
       </c>
       <c r="B432" t="s">
         <v>447</v>
@@ -29239,7 +29239,7 @@
         <v>1</v>
       </c>
       <c r="O432">
-        <v>1.1198070251173</v>
+        <v>1.11980702511731</v>
       </c>
       <c r="P432" t="b">
         <v>0</v>
@@ -29248,12 +29248,12 @@
         <v>0</v>
       </c>
       <c r="R432">
-        <v>0.227705131530069</v>
+        <v>0.22770513153007</v>
       </c>
     </row>
     <row r="433" spans="1:18">
       <c r="A433" s="1">
-        <v>4912</v>
+        <v>5209</v>
       </c>
       <c r="B433" t="s">
         <v>448</v>
@@ -29309,7 +29309,7 @@
     </row>
     <row r="434" spans="1:18">
       <c r="A434" s="1">
-        <v>12786</v>
+        <v>12864</v>
       </c>
       <c r="B434" t="s">
         <v>449</v>
@@ -29365,7 +29365,7 @@
     </row>
     <row r="435" spans="1:18">
       <c r="A435" s="1">
-        <v>4683</v>
+        <v>5007</v>
       </c>
       <c r="B435" t="s">
         <v>450</v>
@@ -29421,7 +29421,7 @@
     </row>
     <row r="436" spans="1:18">
       <c r="A436" s="1">
-        <v>11550</v>
+        <v>11531</v>
       </c>
       <c r="B436" t="s">
         <v>451</v>
@@ -29472,12 +29472,12 @@
         <v>0</v>
       </c>
       <c r="R436">
-        <v>0.221786777152903</v>
+        <v>0.221786777152902</v>
       </c>
     </row>
     <row r="437" spans="1:18">
       <c r="A437" s="1">
-        <v>12937</v>
+        <v>13015</v>
       </c>
       <c r="B437" t="s">
         <v>452</v>
@@ -29533,7 +29533,7 @@
     </row>
     <row r="438" spans="1:18">
       <c r="A438" s="1">
-        <v>12789</v>
+        <v>12867</v>
       </c>
       <c r="B438" t="s">
         <v>453</v>
@@ -29589,7 +29589,7 @@
     </row>
     <row r="439" spans="1:18">
       <c r="A439" s="1">
-        <v>12829</v>
+        <v>12907</v>
       </c>
       <c r="B439" t="s">
         <v>454</v>
@@ -29631,7 +29631,7 @@
         <v>1</v>
       </c>
       <c r="O439">
-        <v>1.06743647214202</v>
+        <v>1.06743647214203</v>
       </c>
       <c r="P439" t="b">
         <v>1</v>
@@ -29645,7 +29645,7 @@
     </row>
     <row r="440" spans="1:18">
       <c r="A440" s="1">
-        <v>4606</v>
+        <v>4282</v>
       </c>
       <c r="B440" t="s">
         <v>455</v>
@@ -29696,12 +29696,12 @@
         <v>0</v>
       </c>
       <c r="R440">
-        <v>0.214525660425835</v>
+        <v>0.214525660425836</v>
       </c>
     </row>
     <row r="441" spans="1:18">
       <c r="A441" s="1">
-        <v>12787</v>
+        <v>12865</v>
       </c>
       <c r="B441" t="s">
         <v>456</v>
@@ -29757,7 +29757,7 @@
     </row>
     <row r="442" spans="1:18">
       <c r="A442" s="1">
-        <v>4503</v>
+        <v>4179</v>
       </c>
       <c r="B442" t="s">
         <v>457</v>
@@ -29808,12 +29808,12 @@
         <v>0</v>
       </c>
       <c r="R442">
-        <v>0.211407317189837</v>
+        <v>0.211407317189836</v>
       </c>
     </row>
     <row r="443" spans="1:18">
       <c r="A443" s="1">
-        <v>4621</v>
+        <v>4945</v>
       </c>
       <c r="B443" t="s">
         <v>458</v>
@@ -29864,12 +29864,12 @@
         <v>0</v>
       </c>
       <c r="R443">
-        <v>0.209627075313082</v>
+        <v>0.209627075313081</v>
       </c>
     </row>
     <row r="444" spans="1:18">
       <c r="A444" s="1">
-        <v>13103</v>
+        <v>13181</v>
       </c>
       <c r="B444" t="s">
         <v>459</v>
@@ -29920,12 +29920,12 @@
         <v>0</v>
       </c>
       <c r="R444">
-        <v>0.209489654775946</v>
+        <v>0.209489654775945</v>
       </c>
     </row>
     <row r="445" spans="1:18">
       <c r="A445" s="1">
-        <v>11543</v>
+        <v>11524</v>
       </c>
       <c r="B445" t="s">
         <v>460</v>
@@ -29976,12 +29976,12 @@
         <v>0</v>
       </c>
       <c r="R445">
-        <v>0.205633182430166</v>
+        <v>0.205633182430165</v>
       </c>
     </row>
     <row r="446" spans="1:18">
       <c r="A446" s="1">
-        <v>12749</v>
+        <v>12827</v>
       </c>
       <c r="B446" t="s">
         <v>461</v>
@@ -30037,7 +30037,7 @@
     </row>
     <row r="447" spans="1:18">
       <c r="A447" s="1">
-        <v>12837</v>
+        <v>12915</v>
       </c>
       <c r="B447" t="s">
         <v>462</v>
@@ -30093,7 +30093,7 @@
     </row>
     <row r="448" spans="1:18">
       <c r="A448" s="1">
-        <v>12945</v>
+        <v>13023</v>
       </c>
       <c r="B448" t="s">
         <v>463</v>
@@ -30144,12 +30144,12 @@
         <v>0</v>
       </c>
       <c r="R448">
-        <v>0.202124041288452</v>
+        <v>0.202124041288451</v>
       </c>
     </row>
     <row r="449" spans="1:18">
       <c r="A449" s="1">
-        <v>12716</v>
+        <v>12794</v>
       </c>
       <c r="B449" t="s">
         <v>464</v>
@@ -30205,7 +30205,7 @@
     </row>
     <row r="450" spans="1:18">
       <c r="A450" s="1">
-        <v>4955</v>
+        <v>5225</v>
       </c>
       <c r="B450" t="s">
         <v>465</v>
@@ -30261,7 +30261,7 @@
     </row>
     <row r="451" spans="1:18">
       <c r="A451" s="1">
-        <v>13000</v>
+        <v>13078</v>
       </c>
       <c r="B451" t="s">
         <v>466</v>
@@ -30303,7 +30303,7 @@
         <v>1</v>
       </c>
       <c r="O451">
-        <v>0.950438392384334</v>
+        <v>0.950438392384333</v>
       </c>
       <c r="P451" t="b">
         <v>0</v>
@@ -30317,7 +30317,7 @@
     </row>
     <row r="452" spans="1:18">
       <c r="A452" s="1">
-        <v>4895</v>
+        <v>5192</v>
       </c>
       <c r="B452" t="s">
         <v>467</v>
@@ -30373,7 +30373,7 @@
     </row>
     <row r="453" spans="1:18">
       <c r="A453" s="1">
-        <v>12763</v>
+        <v>12841</v>
       </c>
       <c r="B453" t="s">
         <v>468</v>
@@ -30429,7 +30429,7 @@
     </row>
     <row r="454" spans="1:18">
       <c r="A454" s="1">
-        <v>4589</v>
+        <v>4913</v>
       </c>
       <c r="B454" t="s">
         <v>469</v>
@@ -30471,7 +30471,7 @@
         <v>1</v>
       </c>
       <c r="O454">
-        <v>0.942528486194304</v>
+        <v>0.942528486194305</v>
       </c>
       <c r="P454" t="b">
         <v>1</v>
@@ -30485,7 +30485,7 @@
     </row>
     <row r="455" spans="1:18">
       <c r="A455" s="1">
-        <v>4915</v>
+        <v>4591</v>
       </c>
       <c r="B455" t="s">
         <v>470</v>
@@ -30527,7 +30527,7 @@
         <v>1</v>
       </c>
       <c r="O455">
-        <v>0.942432304764056</v>
+        <v>0.942432304764055</v>
       </c>
       <c r="P455" t="b">
         <v>0</v>
@@ -30541,7 +30541,7 @@
     </row>
     <row r="456" spans="1:18">
       <c r="A456" s="1">
-        <v>12750</v>
+        <v>12828</v>
       </c>
       <c r="B456" t="s">
         <v>471</v>
@@ -30583,7 +30583,7 @@
         <v>1</v>
       </c>
       <c r="O456">
-        <v>0.912266908846155</v>
+        <v>0.912266908846156</v>
       </c>
       <c r="P456" t="b">
         <v>0</v>
@@ -30597,7 +30597,7 @@
     </row>
     <row r="457" spans="1:18">
       <c r="A457" s="1">
-        <v>11531</v>
+        <v>11512</v>
       </c>
       <c r="B457" t="s">
         <v>472</v>
@@ -30653,7 +30653,7 @@
     </row>
     <row r="458" spans="1:18">
       <c r="A458" s="1">
-        <v>11621</v>
+        <v>11602</v>
       </c>
       <c r="B458" t="s">
         <v>473</v>
@@ -30695,7 +30695,7 @@
         <v>1</v>
       </c>
       <c r="O458">
-        <v>0.891016885821404</v>
+        <v>0.891016885821403</v>
       </c>
       <c r="P458" t="b">
         <v>0</v>
@@ -30709,7 +30709,7 @@
     </row>
     <row r="459" spans="1:18">
       <c r="A459" s="1">
-        <v>11566</v>
+        <v>11547</v>
       </c>
       <c r="B459" t="s">
         <v>474</v>
@@ -30751,7 +30751,7 @@
         <v>1</v>
       </c>
       <c r="O459">
-        <v>0.886871342066797</v>
+        <v>0.886871342066796</v>
       </c>
       <c r="P459" t="b">
         <v>0</v>
@@ -30765,7 +30765,7 @@
     </row>
     <row r="460" spans="1:18">
       <c r="A460" s="1">
-        <v>4911</v>
+        <v>5208</v>
       </c>
       <c r="B460" t="s">
         <v>475</v>
@@ -30821,7 +30821,7 @@
     </row>
     <row r="461" spans="1:18">
       <c r="A461" s="1">
-        <v>4727</v>
+        <v>5051</v>
       </c>
       <c r="B461" t="s">
         <v>476</v>
@@ -30863,7 +30863,7 @@
         <v>1</v>
       </c>
       <c r="O461">
-        <v>0.881194194792494</v>
+        <v>0.881194194792495</v>
       </c>
       <c r="P461" t="b">
         <v>1</v>
@@ -30877,7 +30877,7 @@
     </row>
     <row r="462" spans="1:18">
       <c r="A462" s="1">
-        <v>12737</v>
+        <v>12815</v>
       </c>
       <c r="B462" t="s">
         <v>477</v>
@@ -30919,7 +30919,7 @@
         <v>1</v>
       </c>
       <c r="O462">
-        <v>0.875369675907908</v>
+        <v>0.875369675907909</v>
       </c>
       <c r="P462" t="b">
         <v>0</v>
@@ -30928,12 +30928,12 @@
         <v>0</v>
       </c>
       <c r="R462">
-        <v>0.168632766572432</v>
+        <v>0.168632766572433</v>
       </c>
     </row>
     <row r="463" spans="1:18">
       <c r="A463" s="1">
-        <v>5161</v>
+        <v>5323</v>
       </c>
       <c r="B463" t="s">
         <v>478</v>
@@ -30975,7 +30975,7 @@
         <v>1</v>
       </c>
       <c r="O463">
-        <v>0.86169574335494</v>
+        <v>0.861695743354938</v>
       </c>
       <c r="P463" t="b">
         <v>0</v>
@@ -30989,7 +30989,7 @@
     </row>
     <row r="464" spans="1:18">
       <c r="A464" s="1">
-        <v>5223</v>
+        <v>5358</v>
       </c>
       <c r="B464" t="s">
         <v>479</v>
@@ -31045,7 +31045,7 @@
     </row>
     <row r="465" spans="1:18">
       <c r="A465" s="1">
-        <v>4906</v>
+        <v>5203</v>
       </c>
       <c r="B465" t="s">
         <v>480</v>
@@ -31087,7 +31087,7 @@
         <v>1</v>
       </c>
       <c r="O465">
-        <v>0.82553964259927</v>
+        <v>0.825539642599269</v>
       </c>
       <c r="P465" t="b">
         <v>0</v>
@@ -31101,7 +31101,7 @@
     </row>
     <row r="466" spans="1:18">
       <c r="A466" s="1">
-        <v>5177</v>
+        <v>5339</v>
       </c>
       <c r="B466" t="s">
         <v>481</v>
@@ -31143,7 +31143,7 @@
         <v>1</v>
       </c>
       <c r="O466">
-        <v>0.810397011448126</v>
+        <v>0.810397011448127</v>
       </c>
       <c r="P466" t="b">
         <v>0</v>
@@ -31152,12 +31152,12 @@
         <v>0</v>
       </c>
       <c r="R466">
-        <v>0.153021376701694</v>
+        <v>0.153021376701695</v>
       </c>
     </row>
     <row r="467" spans="1:18">
       <c r="A467" s="1">
-        <v>5072</v>
+        <v>5288</v>
       </c>
       <c r="B467" t="s">
         <v>482</v>
@@ -31213,7 +31213,7 @@
     </row>
     <row r="468" spans="1:18">
       <c r="A468" s="1">
-        <v>4996</v>
+        <v>5239</v>
       </c>
       <c r="B468" t="s">
         <v>483</v>
@@ -31255,7 +31255,7 @@
         <v>1</v>
       </c>
       <c r="O468">
-        <v>0.779227226901129</v>
+        <v>0.779227226901128</v>
       </c>
       <c r="P468" t="b">
         <v>0</v>
@@ -31264,12 +31264,12 @@
         <v>0</v>
       </c>
       <c r="R468">
-        <v>0.145571120212144</v>
+        <v>0.145571120212143</v>
       </c>
     </row>
     <row r="469" spans="1:18">
       <c r="A469" s="1">
-        <v>11622</v>
+        <v>11603</v>
       </c>
       <c r="B469" t="s">
         <v>484</v>
@@ -31311,7 +31311,7 @@
         <v>1</v>
       </c>
       <c r="O469">
-        <v>0.75258480731671</v>
+        <v>0.752584807316711</v>
       </c>
       <c r="P469" t="b">
         <v>0</v>
@@ -31325,7 +31325,7 @@
     </row>
     <row r="470" spans="1:18">
       <c r="A470" s="1">
-        <v>4706</v>
+        <v>4382</v>
       </c>
       <c r="B470" t="s">
         <v>485</v>
@@ -31381,7 +31381,7 @@
     </row>
     <row r="471" spans="1:18">
       <c r="A471" s="1">
-        <v>12741</v>
+        <v>12819</v>
       </c>
       <c r="B471" t="s">
         <v>486</v>
@@ -31437,7 +31437,7 @@
     </row>
     <row r="472" spans="1:18">
       <c r="A472" s="1">
-        <v>12929</v>
+        <v>13007</v>
       </c>
       <c r="B472" t="s">
         <v>487</v>
@@ -31493,7 +31493,7 @@
     </row>
     <row r="473" spans="1:18">
       <c r="A473" s="1">
-        <v>11502</v>
+        <v>11483</v>
       </c>
       <c r="B473" t="s">
         <v>488</v>
@@ -31535,7 +31535,7 @@
         <v>1</v>
       </c>
       <c r="O473">
-        <v>0.702860331917137</v>
+        <v>0.702860331917135</v>
       </c>
       <c r="P473" t="b">
         <v>1</v>
@@ -31544,12 +31544,12 @@
         <v>0</v>
       </c>
       <c r="R473">
-        <v>0.12746903526085</v>
+        <v>0.127469035260849</v>
       </c>
     </row>
     <row r="474" spans="1:18">
       <c r="A474" s="1">
-        <v>4812</v>
+        <v>4488</v>
       </c>
       <c r="B474" t="s">
         <v>489</v>
@@ -31591,7 +31591,7 @@
         <v>1</v>
       </c>
       <c r="O474">
-        <v>0.701020568950039</v>
+        <v>0.701020568950038</v>
       </c>
       <c r="P474" t="b">
         <v>0</v>
@@ -31605,7 +31605,7 @@
     </row>
     <row r="475" spans="1:18">
       <c r="A475" s="1">
-        <v>13015</v>
+        <v>13093</v>
       </c>
       <c r="B475" t="s">
         <v>490</v>
@@ -31656,12 +31656,12 @@
         <v>0</v>
       </c>
       <c r="R475">
-        <v>0.12620045021275</v>
+        <v>0.126200450212749</v>
       </c>
     </row>
     <row r="476" spans="1:18">
       <c r="A476" s="1">
-        <v>5232</v>
+        <v>5367</v>
       </c>
       <c r="B476" t="s">
         <v>491</v>
@@ -31717,7 +31717,7 @@
     </row>
     <row r="477" spans="1:18">
       <c r="A477" s="1">
-        <v>4735</v>
+        <v>5059</v>
       </c>
       <c r="B477" t="s">
         <v>492</v>
@@ -31759,7 +31759,7 @@
         <v>1</v>
       </c>
       <c r="O477">
-        <v>0.659089541589612</v>
+        <v>0.659089541589611</v>
       </c>
       <c r="P477" t="b">
         <v>0</v>
@@ -31773,7 +31773,7 @@
     </row>
     <row r="478" spans="1:18">
       <c r="A478" s="1">
-        <v>4622</v>
+        <v>4946</v>
       </c>
       <c r="B478" t="s">
         <v>493</v>
@@ -31815,7 +31815,7 @@
         <v>1</v>
       </c>
       <c r="O478">
-        <v>0.653757517568553</v>
+        <v>0.653757517568552</v>
       </c>
       <c r="P478" t="b">
         <v>0</v>
@@ -31824,12 +31824,12 @@
         <v>0</v>
       </c>
       <c r="R478">
-        <v>0.115977122203001</v>
+        <v>0.115977122203</v>
       </c>
     </row>
     <row r="479" spans="1:18">
       <c r="A479" s="1">
-        <v>4809</v>
+        <v>4485</v>
       </c>
       <c r="B479" t="s">
         <v>494</v>
@@ -31871,7 +31871,7 @@
         <v>1</v>
       </c>
       <c r="O479">
-        <v>0.641307546767271</v>
+        <v>0.641307546767272</v>
       </c>
       <c r="P479" t="b">
         <v>0</v>
@@ -31880,12 +31880,12 @@
         <v>0</v>
       </c>
       <c r="R479">
-        <v>0.113085802237931</v>
+        <v>0.113085802237932</v>
       </c>
     </row>
     <row r="480" spans="1:18">
       <c r="A480" s="1">
-        <v>4385</v>
+        <v>4061</v>
       </c>
       <c r="B480" t="s">
         <v>495</v>
@@ -31941,7 +31941,7 @@
     </row>
     <row r="481" spans="1:18">
       <c r="A481" s="1">
-        <v>4644</v>
+        <v>4320</v>
       </c>
       <c r="B481" t="s">
         <v>496</v>
@@ -31997,7 +31997,7 @@
     </row>
     <row r="482" spans="1:18">
       <c r="A482" s="1">
-        <v>11698</v>
+        <v>11679</v>
       </c>
       <c r="B482" t="s">
         <v>497</v>
@@ -32053,7 +32053,7 @@
     </row>
     <row r="483" spans="1:18">
       <c r="A483" s="1">
-        <v>12719</v>
+        <v>12797</v>
       </c>
       <c r="B483" t="s">
         <v>498</v>
@@ -32109,7 +32109,7 @@
     </row>
     <row r="484" spans="1:18">
       <c r="A484" s="1">
-        <v>11397</v>
+        <v>11378</v>
       </c>
       <c r="B484" t="s">
         <v>499</v>
@@ -32165,7 +32165,7 @@
     </row>
     <row r="485" spans="1:18">
       <c r="A485" s="1">
-        <v>4268</v>
+        <v>3944</v>
       </c>
       <c r="B485" t="s">
         <v>500</v>
@@ -32207,7 +32207,7 @@
         <v>1</v>
       </c>
       <c r="O485">
-        <v>0.549344420883179</v>
+        <v>0.549344420883178</v>
       </c>
       <c r="P485" t="b">
         <v>0</v>
@@ -32216,12 +32216,12 @@
         <v>0</v>
       </c>
       <c r="R485">
-        <v>0.0920756430820294</v>
+        <v>0.0920756430820293</v>
       </c>
     </row>
     <row r="486" spans="1:18">
       <c r="A486" s="1">
-        <v>11529</v>
+        <v>11510</v>
       </c>
       <c r="B486" t="s">
         <v>501</v>
@@ -32263,7 +32263,7 @@
         <v>1</v>
       </c>
       <c r="O486">
-        <v>0.540976524618373</v>
+        <v>0.540976524618372</v>
       </c>
       <c r="P486" t="b">
         <v>0</v>
@@ -32272,12 +32272,12 @@
         <v>0</v>
       </c>
       <c r="R486">
-        <v>0.0901988926284914</v>
+        <v>0.0901988926284912</v>
       </c>
     </row>
     <row r="487" spans="1:18">
       <c r="A487" s="1">
-        <v>4779</v>
+        <v>5103</v>
       </c>
       <c r="B487" t="s">
         <v>502</v>
@@ -32328,12 +32328,12 @@
         <v>0</v>
       </c>
       <c r="R487">
-        <v>0.0891392212624711</v>
+        <v>0.089139221262471</v>
       </c>
     </row>
     <row r="488" spans="1:18">
       <c r="A488" s="1">
-        <v>12729</v>
+        <v>12807</v>
       </c>
       <c r="B488" t="s">
         <v>503</v>
@@ -32389,7 +32389,7 @@
     </row>
     <row r="489" spans="1:18">
       <c r="A489" s="1">
-        <v>4944</v>
+        <v>5214</v>
       </c>
       <c r="B489" t="s">
         <v>504</v>
@@ -32440,12 +32440,12 @@
         <v>0</v>
       </c>
       <c r="R489">
-        <v>0.0775434042185013</v>
+        <v>0.0775434042185014</v>
       </c>
     </row>
     <row r="490" spans="1:18">
       <c r="A490" s="1">
-        <v>11576</v>
+        <v>11557</v>
       </c>
       <c r="B490" t="s">
         <v>505</v>
@@ -32487,7 +32487,7 @@
         <v>1</v>
       </c>
       <c r="O490">
-        <v>0.480355489392921</v>
+        <v>0.480355489392922</v>
       </c>
       <c r="P490" t="b">
         <v>0</v>
@@ -32496,12 +32496,12 @@
         <v>0</v>
       </c>
       <c r="R490">
-        <v>0.0768144633162315</v>
+        <v>0.0768144633162316</v>
       </c>
     </row>
     <row r="491" spans="1:18">
       <c r="A491" s="1">
-        <v>11339</v>
+        <v>11320</v>
       </c>
       <c r="B491" t="s">
         <v>506</v>
@@ -32543,7 +32543,7 @@
         <v>1</v>
       </c>
       <c r="O491">
-        <v>0.470226825496337</v>
+        <v>0.470226825496338</v>
       </c>
       <c r="P491" t="b">
         <v>0</v>
@@ -32552,12 +32552,12 @@
         <v>0</v>
       </c>
       <c r="R491">
-        <v>0.074617967470361</v>
+        <v>0.0746179674703611</v>
       </c>
     </row>
     <row r="492" spans="1:18">
       <c r="A492" s="1">
-        <v>4376</v>
+        <v>4052</v>
       </c>
       <c r="B492" t="s">
         <v>507</v>
@@ -32608,12 +32608,12 @@
         <v>0</v>
       </c>
       <c r="R492">
-        <v>0.0662618434852757</v>
+        <v>0.0662618434852756</v>
       </c>
     </row>
     <row r="493" spans="1:18">
       <c r="A493" s="1">
-        <v>11514</v>
+        <v>11495</v>
       </c>
       <c r="B493" t="s">
         <v>508</v>
@@ -32655,7 +32655,7 @@
         <v>1</v>
       </c>
       <c r="O493">
-        <v>0.421985517605776</v>
+        <v>0.421985517605775</v>
       </c>
       <c r="P493" t="b">
         <v>0</v>
@@ -32664,12 +32664,12 @@
         <v>0</v>
       </c>
       <c r="R493">
-        <v>0.0643357234839958</v>
+        <v>0.0643357234839957</v>
       </c>
     </row>
     <row r="494" spans="1:18">
       <c r="A494" s="1">
-        <v>11363</v>
+        <v>11344</v>
       </c>
       <c r="B494" t="s">
         <v>509</v>
@@ -32725,7 +32725,7 @@
     </row>
     <row r="495" spans="1:18">
       <c r="A495" s="1">
-        <v>11415</v>
+        <v>11396</v>
       </c>
       <c r="B495" t="s">
         <v>510</v>
@@ -32776,12 +32776,12 @@
         <v>0</v>
       </c>
       <c r="R495">
-        <v>0.0614961534340758</v>
+        <v>0.061496153434076</v>
       </c>
     </row>
     <row r="496" spans="1:18">
       <c r="A496" s="1">
-        <v>12794</v>
+        <v>12872</v>
       </c>
       <c r="B496" t="s">
         <v>511</v>
@@ -32832,12 +32832,12 @@
         <v>0</v>
       </c>
       <c r="R496">
-        <v>0.0551125698346288</v>
+        <v>0.0551125698346289</v>
       </c>
     </row>
     <row r="497" spans="1:18">
       <c r="A497" s="1">
-        <v>4788</v>
+        <v>5112</v>
       </c>
       <c r="B497" t="s">
         <v>512</v>
@@ -32888,12 +32888,12 @@
         <v>0</v>
       </c>
       <c r="R497">
-        <v>0.0546966081811211</v>
+        <v>0.054696608181121</v>
       </c>
     </row>
     <row r="498" spans="1:18">
       <c r="A498" s="1">
-        <v>11434</v>
+        <v>11415</v>
       </c>
       <c r="B498" t="s">
         <v>513</v>
@@ -32949,7 +32949,7 @@
     </row>
     <row r="499" spans="1:18">
       <c r="A499" s="1">
-        <v>4859</v>
+        <v>5183</v>
       </c>
       <c r="B499" t="s">
         <v>514</v>
@@ -32991,7 +32991,7 @@
         <v>1</v>
       </c>
       <c r="O499">
-        <v>0.347213083397357</v>
+        <v>0.347213083397358</v>
       </c>
       <c r="P499" t="b">
         <v>0</v>
@@ -33000,12 +33000,12 @@
         <v>0</v>
       </c>
       <c r="R499">
-        <v>0.0490824373809759</v>
+        <v>0.049082437380976</v>
       </c>
     </row>
     <row r="500" spans="1:18">
       <c r="A500" s="1">
-        <v>4618</v>
+        <v>4942</v>
       </c>
       <c r="B500" t="s">
         <v>515</v>
@@ -33047,7 +33047,7 @@
         <v>1</v>
       </c>
       <c r="O500">
-        <v>0.333354770944942</v>
+        <v>0.333354770944941</v>
       </c>
       <c r="P500" t="b">
         <v>0</v>
@@ -33056,12 +33056,12 @@
         <v>0</v>
       </c>
       <c r="R500">
-        <v>0.0463620066322996</v>
+        <v>0.0463620066322995</v>
       </c>
     </row>
     <row r="501" spans="1:18">
       <c r="A501" s="1">
-        <v>12947</v>
+        <v>13025</v>
       </c>
       <c r="B501" t="s">
         <v>516</v>
@@ -33103,7 +33103,7 @@
         <v>1</v>
       </c>
       <c r="O501">
-        <v>0.32155720860055</v>
+        <v>0.321557208600551</v>
       </c>
       <c r="P501" t="b">
         <v>0</v>
@@ -33112,12 +33112,12 @@
         <v>0</v>
       </c>
       <c r="R501">
-        <v>0.0440755468702116</v>
+        <v>0.0440755468702117</v>
       </c>
     </row>
     <row r="502" spans="1:18">
       <c r="A502" s="1">
-        <v>12992</v>
+        <v>13070</v>
       </c>
       <c r="B502" t="s">
         <v>517</v>
@@ -33159,7 +33159,7 @@
         <v>1</v>
       </c>
       <c r="O502">
-        <v>0.298510230826137</v>
+        <v>0.298510230826136</v>
       </c>
       <c r="P502" t="b">
         <v>0</v>
@@ -33168,12 +33168,12 @@
         <v>0</v>
       </c>
       <c r="R502">
-        <v>0.0396915782164832</v>
+        <v>0.0396915782164831</v>
       </c>
     </row>
     <row r="503" spans="1:18">
       <c r="A503" s="1">
-        <v>4953</v>
+        <v>5223</v>
       </c>
       <c r="B503" t="s">
         <v>518</v>
@@ -33229,7 +33229,7 @@
     </row>
     <row r="504" spans="1:18">
       <c r="A504" s="1">
-        <v>11637</v>
+        <v>11618</v>
       </c>
       <c r="B504" t="s">
         <v>519</v>
@@ -33280,12 +33280,12 @@
         <v>0</v>
       </c>
       <c r="R504">
-        <v>0.0281139921493685</v>
+        <v>0.0281139921493684</v>
       </c>
     </row>
     <row r="505" spans="1:18">
       <c r="A505" s="1">
-        <v>12960</v>
+        <v>13038</v>
       </c>
       <c r="B505" t="s">
         <v>520</v>
@@ -33336,12 +33336,12 @@
         <v>0</v>
       </c>
       <c r="R505">
-        <v>0.0274501104474222</v>
+        <v>0.0274501104474223</v>
       </c>
     </row>
     <row r="506" spans="1:18">
       <c r="A506" s="1">
-        <v>5019</v>
+        <v>5262</v>
       </c>
       <c r="B506" t="s">
         <v>521</v>
@@ -33397,7 +33397,7 @@
     </row>
     <row r="507" spans="1:18">
       <c r="A507" s="1">
-        <v>11379</v>
+        <v>11360</v>
       </c>
       <c r="B507" t="s">
         <v>522</v>
@@ -33453,7 +33453,7 @@
     </row>
     <row r="508" spans="1:18">
       <c r="A508" s="1">
-        <v>11578</v>
+        <v>11559</v>
       </c>
       <c r="B508" t="s">
         <v>523</v>
@@ -33504,12 +33504,12 @@
         <v>0</v>
       </c>
       <c r="R508">
-        <v>0.0188409820673882</v>
+        <v>0.0188409820673883</v>
       </c>
     </row>
     <row r="509" spans="1:18">
       <c r="A509" s="1">
-        <v>11424</v>
+        <v>11405</v>
       </c>
       <c r="B509" t="s">
         <v>524</v>
@@ -33551,7 +33551,7 @@
         <v>1</v>
       </c>
       <c r="O509">
-        <v>0.112057116808823</v>
+        <v>0.112057116808824</v>
       </c>
       <c r="P509" t="b">
         <v>0</v>
@@ -33560,12 +33560,12 @@
         <v>0</v>
       </c>
       <c r="R509">
-        <v>0.0096477281223368</v>
+        <v>0.00964772812233682</v>
       </c>
     </row>
     <row r="510" spans="1:18">
       <c r="A510" s="1">
-        <v>12756</v>
+        <v>12834</v>
       </c>
       <c r="B510" t="s">
         <v>525</v>
@@ -33616,12 +33616,12 @@
         <v>0</v>
       </c>
       <c r="R510">
-        <v>0.00862376925530751</v>
+        <v>0.00862376925530752</v>
       </c>
     </row>
     <row r="511" spans="1:18">
       <c r="A511" s="1">
-        <v>5112</v>
+        <v>5301</v>
       </c>
       <c r="B511" t="s">
         <v>526</v>
@@ -33663,7 +33663,7 @@
         <v>1</v>
       </c>
       <c r="O511">
-        <v>0.0889748788313667</v>
+        <v>0.0889748788313666</v>
       </c>
       <c r="P511" t="b">
         <v>0</v>
@@ -33677,7 +33677,7 @@
     </row>
     <row r="512" spans="1:18">
       <c r="A512" s="1">
-        <v>12815</v>
+        <v>12893</v>
       </c>
       <c r="B512" t="s">
         <v>527</v>
@@ -33728,7 +33728,7 @@
         <v>0</v>
       </c>
       <c r="R512">
-        <v>0.00560537759311991</v>
+        <v>0.00560537759311992</v>
       </c>
     </row>
   </sheetData>
@@ -33796,7 +33796,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13060</v>
+        <v>13138</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -33838,7 +33838,7 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>32.231729128772</v>
+        <v>32.2317291287721</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -33849,7 +33849,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>12995</v>
+        <v>13073</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -33902,7 +33902,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>5056</v>
+        <v>5272</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -33955,7 +33955,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>11477</v>
+        <v>11458</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -34008,7 +34008,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>4592</v>
+        <v>4268</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -34061,7 +34061,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>11519</v>
+        <v>11500</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -34103,7 +34103,7 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>21.9090321556526</v>
+        <v>21.9090321556525</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -34114,7 +34114,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>12760</v>
+        <v>12838</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -34156,7 +34156,7 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>21.3347735744544</v>
+        <v>21.3347735744545</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -34167,7 +34167,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4921</v>
+        <v>4597</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -34220,7 +34220,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5063</v>
+        <v>5279</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -34273,7 +34273,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>5287</v>
+        <v>5395</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -34315,7 +34315,7 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>17.3052582753167</v>
+        <v>17.3052582753166</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -34326,7 +34326,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>5169</v>
+        <v>5331</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -34379,7 +34379,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>5055</v>
+        <v>5271</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -34432,7 +34432,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>5049</v>
+        <v>5265</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -34474,7 +34474,7 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>15.7448596797871</v>
+        <v>15.744859679787</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -34485,7 +34485,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>4917</v>
+        <v>4593</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -34538,7 +34538,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>11490</v>
+        <v>11471</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -34591,7 +34591,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>4494</v>
+        <v>4170</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -34644,7 +34644,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>4662</v>
+        <v>4338</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -34697,7 +34697,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>12823</v>
+        <v>12901</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -34750,7 +34750,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>4678</v>
+        <v>5002</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
@@ -34792,7 +34792,7 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>11.704183096398</v>
+        <v>11.7041830963979</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -34803,7 +34803,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>12874</v>
+        <v>12952</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
@@ -34856,7 +34856,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>4333</v>
+        <v>4009</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -34898,7 +34898,7 @@
         <v>1</v>
       </c>
       <c r="O22">
-        <v>11.3378564715458</v>
+        <v>11.3378564715459</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -34909,7 +34909,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>12693</v>
+        <v>12771</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -34951,7 +34951,7 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>11.0540862058086</v>
+        <v>11.0540862058085</v>
       </c>
       <c r="P23" t="b">
         <v>0</v>
@@ -34962,7 +34962,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>11522</v>
+        <v>11503</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -35015,7 +35015,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>12842</v>
+        <v>12920</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -35057,7 +35057,7 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>10.3465969247671</v>
+        <v>10.3465969247672</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -35068,7 +35068,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>12799</v>
+        <v>12877</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
@@ -35121,7 +35121,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>4761</v>
+        <v>4437</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
@@ -35174,7 +35174,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>5066</v>
+        <v>5282</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
@@ -35216,7 +35216,7 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>9.87237851869208</v>
+        <v>9.8723785186921</v>
       </c>
       <c r="P28" t="b">
         <v>0</v>
@@ -35227,7 +35227,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>12913</v>
+        <v>12991</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -35269,7 +35269,7 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>9.84231414993594</v>
+        <v>9.84231414993595</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -35280,7 +35280,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>12927</v>
+        <v>13005</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
@@ -35322,18 +35322,18 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>9.25903480864844</v>
+        <v>9.25903480864846</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>0.973962052805056</v>
+        <v>0.973962052805057</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>11384</v>
+        <v>11365</v>
       </c>
       <c r="B31" t="s">
         <v>64</v>
@@ -35375,7 +35375,7 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>8.96550504134515</v>
+        <v>8.96550504134513</v>
       </c>
       <c r="P31" t="b">
         <v>0</v>
@@ -35386,7 +35386,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>12807</v>
+        <v>12885</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -35428,7 +35428,7 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>8.86089664908067</v>
+        <v>8.86089664908066</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
@@ -35439,7 +35439,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>11590</v>
+        <v>11571</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
@@ -35481,7 +35481,7 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>8.76715731577655</v>
+        <v>8.76715731577657</v>
       </c>
       <c r="P33" t="b">
         <v>0</v>
@@ -35492,7 +35492,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>11589</v>
+        <v>11570</v>
       </c>
       <c r="B34" t="s">
         <v>68</v>
@@ -35545,7 +35545,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>4934</v>
+        <v>4610</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -35587,7 +35587,7 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <v>8.56000219938043</v>
+        <v>8.56000219938041</v>
       </c>
       <c r="P35" t="b">
         <v>0</v>
@@ -35598,7 +35598,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>13036</v>
+        <v>13114</v>
       </c>
       <c r="B36" t="s">
         <v>81</v>
@@ -35651,7 +35651,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>11647</v>
+        <v>11628</v>
       </c>
       <c r="B37" t="s">
         <v>82</v>
@@ -35699,12 +35699,12 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>0.946161241800464</v>
+        <v>0.946161241800463</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>13010</v>
+        <v>13088</v>
       </c>
       <c r="B38" t="s">
         <v>83</v>
@@ -35746,7 +35746,7 @@
         <v>1</v>
       </c>
       <c r="O38">
-        <v>7.40793393177443</v>
+        <v>7.40793393177444</v>
       </c>
       <c r="P38" t="b">
         <v>0</v>
@@ -35757,7 +35757,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>4801</v>
+        <v>5125</v>
       </c>
       <c r="B39" t="s">
         <v>84</v>
@@ -35799,7 +35799,7 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <v>7.35349552789634</v>
+        <v>7.35349552789633</v>
       </c>
       <c r="P39" t="b">
         <v>0</v>
@@ -35810,7 +35810,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>5234</v>
+        <v>5369</v>
       </c>
       <c r="B40" t="s">
         <v>86</v>
@@ -35863,7 +35863,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>12968</v>
+        <v>13046</v>
       </c>
       <c r="B41" t="s">
         <v>88</v>
@@ -35905,7 +35905,7 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <v>6.72177777343927</v>
+        <v>6.72177777343928</v>
       </c>
       <c r="P41" t="b">
         <v>0</v>
@@ -35916,7 +35916,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>12805</v>
+        <v>12883</v>
       </c>
       <c r="B42" t="s">
         <v>90</v>
@@ -35964,12 +35964,12 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0.916188125118737</v>
+        <v>0.916188125118738</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>4550</v>
+        <v>4226</v>
       </c>
       <c r="B43" t="s">
         <v>91</v>
@@ -36011,18 +36011,18 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <v>6.51663702262196</v>
+        <v>6.51663702262194</v>
       </c>
       <c r="P43" t="b">
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0.91099131495938</v>
+        <v>0.910991314959379</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>11552</v>
+        <v>11533</v>
       </c>
       <c r="B44" t="s">
         <v>92</v>
@@ -36064,18 +36064,18 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <v>6.50589087457311</v>
+        <v>6.50589087457312</v>
       </c>
       <c r="P44" t="b">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>0.910569528256852</v>
+        <v>0.910569528256853</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>12695</v>
+        <v>12773</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
@@ -36117,7 +36117,7 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <v>6.47405194405466</v>
+        <v>6.47405194405465</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
@@ -36128,7 +36128,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>12769</v>
+        <v>12847</v>
       </c>
       <c r="B46" t="s">
         <v>94</v>
@@ -36170,7 +36170,7 @@
         <v>1</v>
       </c>
       <c r="O46">
-        <v>6.45415370274024</v>
+        <v>6.45415370274025</v>
       </c>
       <c r="P46" t="b">
         <v>0</v>
@@ -36181,7 +36181,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>4835</v>
+        <v>5159</v>
       </c>
       <c r="B47" t="s">
         <v>96</v>
@@ -36223,7 +36223,7 @@
         <v>1</v>
       </c>
       <c r="O47">
-        <v>6.44473701568227</v>
+        <v>6.44473701568228</v>
       </c>
       <c r="P47" t="b">
         <v>0</v>
@@ -36234,7 +36234,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>4270</v>
+        <v>3946</v>
       </c>
       <c r="B48" t="s">
         <v>97</v>
@@ -36276,18 +36276,18 @@
         <v>1</v>
       </c>
       <c r="O48">
-        <v>6.37924425697886</v>
+        <v>6.37924425697887</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>0.905451582654235</v>
+        <v>0.905451582654236</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>4331</v>
+        <v>4007</v>
       </c>
       <c r="B49" t="s">
         <v>100</v>
@@ -36340,7 +36340,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>5073</v>
+        <v>5289</v>
       </c>
       <c r="B50" t="s">
         <v>104</v>
@@ -36393,7 +36393,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>4679</v>
+        <v>5003</v>
       </c>
       <c r="B51" t="s">
         <v>106</v>
@@ -36446,7 +36446,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>12978</v>
+        <v>13056</v>
       </c>
       <c r="B52" t="s">
         <v>108</v>
@@ -36488,7 +36488,7 @@
         <v>1</v>
       </c>
       <c r="O52">
-        <v>6.01964193452478</v>
+        <v>6.01964193452477</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
@@ -36499,7 +36499,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>4641</v>
+        <v>4965</v>
       </c>
       <c r="B53" t="s">
         <v>110</v>
@@ -36552,7 +36552,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>4834</v>
+        <v>5158</v>
       </c>
       <c r="B54" t="s">
         <v>111</v>
@@ -36594,18 +36594,18 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <v>5.90635882691719</v>
+        <v>5.90635882691718</v>
       </c>
       <c r="P54" t="b">
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>0.883743978919739</v>
+        <v>0.883743978919738</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>4664</v>
+        <v>4340</v>
       </c>
       <c r="B55" t="s">
         <v>112</v>
@@ -36647,18 +36647,18 @@
         <v>1</v>
       </c>
       <c r="O55">
-        <v>5.84214205454631</v>
+        <v>5.8421420545463</v>
       </c>
       <c r="P55" t="b">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>0.880451907444736</v>
+        <v>0.880451907444735</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>12830</v>
+        <v>12908</v>
       </c>
       <c r="B56" t="s">
         <v>113</v>
@@ -36700,18 +36700,18 @@
         <v>1</v>
       </c>
       <c r="O56">
-        <v>5.83219651569183</v>
+        <v>5.83219651569182</v>
       </c>
       <c r="P56" t="b">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0.879934164005489</v>
+        <v>0.879934164005488</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>4438</v>
+        <v>4114</v>
       </c>
       <c r="B57" t="s">
         <v>114</v>
@@ -36764,7 +36764,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>11593</v>
+        <v>11574</v>
       </c>
       <c r="B58" t="s">
         <v>115</v>
@@ -36806,18 +36806,18 @@
         <v>1</v>
       </c>
       <c r="O58">
-        <v>5.74975504467544</v>
+        <v>5.74975504467543</v>
       </c>
       <c r="P58" t="b">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0.875559381464135</v>
+        <v>0.875559381464134</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>4916</v>
+        <v>4592</v>
       </c>
       <c r="B59" t="s">
         <v>119</v>
@@ -36870,7 +36870,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>4583</v>
+        <v>4907</v>
       </c>
       <c r="B60" t="s">
         <v>120</v>
@@ -36912,7 +36912,7 @@
         <v>1</v>
       </c>
       <c r="O60">
-        <v>5.61300891628053</v>
+        <v>5.61300891628052</v>
       </c>
       <c r="P60" t="b">
         <v>0</v>
@@ -36923,7 +36923,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>5120</v>
+        <v>5309</v>
       </c>
       <c r="B61" t="s">
         <v>121</v>
@@ -36976,7 +36976,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>11597</v>
+        <v>11578</v>
       </c>
       <c r="B62" t="s">
         <v>122</v>
@@ -37018,7 +37018,7 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <v>5.55411277234979</v>
+        <v>5.55411277234978</v>
       </c>
       <c r="P62" t="b">
         <v>0</v>
@@ -37029,7 +37029,7 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>11598</v>
+        <v>11579</v>
       </c>
       <c r="B63" t="s">
         <v>123</v>
@@ -37082,7 +37082,7 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>13025</v>
+        <v>13103</v>
       </c>
       <c r="B64" t="s">
         <v>125</v>
@@ -37135,7 +37135,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
-        <v>4932</v>
+        <v>4608</v>
       </c>
       <c r="B65" t="s">
         <v>130</v>
@@ -37183,12 +37183,12 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>0.845743300288363</v>
+        <v>0.845743300288364</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
-        <v>12949</v>
+        <v>13027</v>
       </c>
       <c r="B66" t="s">
         <v>131</v>
@@ -37230,7 +37230,7 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <v>5.23238555149843</v>
+        <v>5.23238555149844</v>
       </c>
       <c r="P66" t="b">
         <v>0</v>
@@ -37241,7 +37241,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
-        <v>4452</v>
+        <v>4128</v>
       </c>
       <c r="B67" t="s">
         <v>132</v>
@@ -37294,7 +37294,7 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
-        <v>4786</v>
+        <v>5110</v>
       </c>
       <c r="B68" t="s">
         <v>134</v>
@@ -37336,18 +37336,18 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <v>5.1348684193287</v>
+        <v>5.13486841932871</v>
       </c>
       <c r="P68" t="b">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>0.837816358088447</v>
+        <v>0.837816358088448</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
-        <v>4999</v>
+        <v>5242</v>
       </c>
       <c r="B69" t="s">
         <v>139</v>
@@ -37389,18 +37389,18 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>5.06120871844157</v>
+        <v>5.06120871844158</v>
       </c>
       <c r="P69" t="b">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>0.832630381676005</v>
+        <v>0.832630381676006</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
-        <v>11374</v>
+        <v>11355</v>
       </c>
       <c r="B70" t="s">
         <v>140</v>
@@ -37442,18 +37442,18 @@
         <v>1</v>
       </c>
       <c r="O70">
-        <v>5.04629664111454</v>
+        <v>5.04629664111453</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>0.831561702559341</v>
+        <v>0.83156170255934</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
-        <v>4732</v>
+        <v>5056</v>
       </c>
       <c r="B71" t="s">
         <v>148</v>
@@ -37495,18 +37495,18 @@
         <v>1</v>
       </c>
       <c r="O71">
-        <v>4.81049006579122</v>
+        <v>4.81049006579121</v>
       </c>
       <c r="P71" t="b">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>0.813788294140445</v>
+        <v>0.813788294140444</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
-        <v>12775</v>
+        <v>12853</v>
       </c>
       <c r="B72" t="s">
         <v>153</v>
@@ -37548,7 +37548,7 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>4.68899633051346</v>
+        <v>4.68899633051347</v>
       </c>
       <c r="P72" t="b">
         <v>0</v>
